--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -59,7 +59,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 2:38 PM</t>
+    <t>Friday, 13 June, 2025 2:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -59,7 +59,37 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 2:41 PM</t>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Friday, 13 June, 2025 2:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -721,38 +751,104 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>18</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>17</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
         <v>18</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>28</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -766,10 +862,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>VARDE 20 MG 4 F.C. TABS</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -89,7 +104,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 2:56 PM</t>
+    <t>Friday, 13 June, 2025 3:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -747,7 +762,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -756,20 +771,20 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
@@ -780,7 +795,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -789,20 +804,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -813,42 +828,75 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>28</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>23</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>29</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>26</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>27</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>28</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>70.840000000000003</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>32</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>33</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +920,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -62,6 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t xml:space="preserve">REMOT SUN SCREEN CREAM  GEL</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>249.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>VARDE 20 MG 4 F.C. TABS</t>
   </si>
   <si>
@@ -80,18 +98,12 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -104,7 +116,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 3:17 PM</t>
+    <t>Friday, 13 June, 2025 4:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -784,18 +796,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -804,31 +816,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -850,7 +862,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -861,42 +873,75 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>70.840000000000003</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>31</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>32</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>33</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>319.83999999999997</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>36</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>37</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -925,10 +970,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -116,7 +116,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 4:12 PM</t>
+    <t>Friday, 13 June, 2025 4:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -116,7 +116,19 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 4:15 PM</t>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Friday, 13 June, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -910,38 +922,71 @@
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>319.83999999999997</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>339.83999999999997</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>40</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>41</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1020,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -44,42 +44,96 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t xml:space="preserve">REMOT SUN SCREEN CREAM  GEL</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>249.00</t>
   </si>
   <si>
     <t>249.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>VARDE 20 MG 4 F.C. TABS</t>
   </si>
   <si>
@@ -95,9 +149,6 @@
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -128,7 +179,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 4:52 PM</t>
+    <t>Friday, 13 June, 2025 5:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -819,7 +870,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -828,31 +879,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -861,14 +912,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -878,14 +929,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -901,7 +952,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -911,14 +962,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -927,14 +978,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -944,49 +995,214 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>38</v>
       </c>
-      <c t="s" r="Q12" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>339.83999999999997</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>23</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>39</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>40</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>41</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>42</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>19</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>43</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>49</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>53</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>54</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>731.84000000000003</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>56</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>57</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>58</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1025,10 +1241,35 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -59,18 +77,12 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
     <t>28:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -179,7 +191,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 5:14 PM</t>
+    <t>Friday, 13 June, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -892,7 +904,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -925,7 +937,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -936,7 +948,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -945,20 +957,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -969,7 +981,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -978,20 +990,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1002,7 +1014,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1018,7 +1030,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1028,14 +1040,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1044,14 +1056,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1068,7 +1080,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1084,7 +1096,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1094,14 +1106,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1110,20 +1122,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1156,7 +1168,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1171,38 +1183,71 @@
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>731.84000000000003</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>56</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>57</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>19</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>58</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>754.84000000000003</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>60</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>61</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>62</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1266,10 +1311,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -191,7 +203,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 5:15 PM</t>
+    <t>Friday, 13 June, 2025 5:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -871,15 +883,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -891,20 +903,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -981,7 +993,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -990,14 +1002,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1014,7 +1026,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1023,14 +1035,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1047,7 +1059,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1063,24 +1075,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1089,20 +1101,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1113,7 +1125,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1129,24 +1141,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,20 +1167,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1201,7 +1213,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1216,38 +1228,71 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>754.84000000000003</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>60</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>61</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>23</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>62</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>785.84000000000003</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>64</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>65</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>66</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1316,10 +1361,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -203,7 +203,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 5:16 PM</t>
+    <t>Friday, 13 June, 2025 5:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -125,9 +140,6 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -158,12 +170,24 @@
     <t>249.0000</t>
   </si>
   <si>
+    <t>TOPOPRAZAN 20 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>VARDE 20 MG 4 F.C. TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -203,7 +227,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 5:17 PM</t>
+    <t>Friday, 13 June, 2025 5:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1042,7 +1066,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1052,14 +1076,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1068,14 +1092,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1092,7 +1116,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1108,24 +1132,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1134,20 +1158,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1158,7 +1182,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1174,13 +1198,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1191,7 +1215,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1207,24 +1231,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1233,66 +1257,165 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>22</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>23</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
-      <c t="s" r="Q19" s="12">
+      <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>785.84000000000003</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>64</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>65</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>23</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>66</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>68</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>69</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>23</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>70</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>877.14999999999998</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>72</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>73</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>74</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1366,10 +1489,25 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -203,6 +203,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -227,7 +239,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 5:30 PM</t>
+    <t>Friday, 13 June, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1384,38 +1396,71 @@
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>877.14999999999998</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>72</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
         <v>73</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>23</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>74</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>917.14999999999998</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>76</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>77</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>78</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1504,10 +1549,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -161,6 +173,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t xml:space="preserve">REMOT SUN SCREEN CREAM  GEL</t>
   </si>
   <si>
@@ -230,16 +251,13 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 5:32 PM</t>
+    <t>Friday, 13 June, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1161,7 +1179,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1177,24 +1195,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1203,14 +1221,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1220,11 +1238,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>38</v>
@@ -1236,31 +1254,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1269,14 +1287,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1286,14 +1304,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1302,31 +1320,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1335,20 +1353,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1359,7 +1377,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1375,7 +1393,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1385,11 +1403,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1401,14 +1419,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1418,49 +1436,115 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>917.14999999999998</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
         <v>76</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>23</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>77</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>47</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>23</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>80</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>979.70000000000005</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>82</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>83</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>84</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1554,10 +1638,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -182,6 +194,15 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t xml:space="preserve">REMOT SUN SCREEN CREAM  GEL</t>
   </si>
   <si>
@@ -215,6 +236,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -224,6 +254,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -236,6 +275,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -257,7 +305,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 5:46 PM</t>
+    <t>Friday, 13 June, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1228,7 +1276,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1238,11 +1286,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>38</v>
@@ -1254,31 +1302,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1287,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1304,11 +1352,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>38</v>
@@ -1320,31 +1368,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1353,14 +1401,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1370,14 +1418,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1386,31 +1434,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1419,20 +1467,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1443,7 +1491,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1459,21 +1507,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1485,14 +1533,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1502,49 +1550,214 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>979.70000000000005</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>31</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>23</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>82</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c t="s" r="Q26" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>84</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>85</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>23</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>86</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>31</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>23</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>89</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>92</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>23</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>47</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>23</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>96</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1059.3399999999999</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>100</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1648,10 +1861,35 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DIAX 200MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -194,15 +203,18 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
     <t xml:space="preserve">REMOT SUN SCREEN CREAM  GEL</t>
   </si>
   <si>
@@ -305,7 +317,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 6:15 PM</t>
+    <t>Friday, 13 June, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1144,7 +1156,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1154,14 +1166,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1170,14 +1182,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1194,7 +1206,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1210,7 +1222,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1220,11 +1232,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1236,14 +1248,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,14 +1265,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1269,14 +1281,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1286,11 +1298,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>38</v>
@@ -1302,14 +1314,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1342,7 +1354,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1375,13 +1387,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1392,7 +1404,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1408,7 +1420,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1418,11 +1430,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>38</v>
@@ -1434,31 +1446,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1467,14 +1479,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1484,14 +1496,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1500,14 +1512,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1517,14 +1529,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1533,31 +1545,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,7 +1578,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1579,18 +1591,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,14 +1611,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1616,11 +1628,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1632,7 +1644,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1649,14 +1661,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,14 +1677,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1682,11 +1694,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1698,14 +1710,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1715,49 +1727,115 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1059.3399999999999</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>96</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>23</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>97</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>99</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>50</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>23</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>100</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1103.1099999999999</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>102</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>103</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>104</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1886,10 +1964,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -317,7 +317,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 6:18 PM</t>
+    <t>Friday, 13 June, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -296,6 +305,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -317,7 +335,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 6:26 PM</t>
+    <t>Friday, 13 June, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1255,7 +1273,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1265,11 +1283,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1281,14 +1299,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1298,14 +1316,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1314,14 +1332,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1331,11 +1349,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>38</v>
@@ -1347,14 +1365,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1420,7 +1438,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1430,11 +1448,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>38</v>
@@ -1446,31 +1464,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1492,7 +1510,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1503,7 +1521,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1519,7 +1537,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1533,7 +1551,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>38</v>
@@ -1545,14 +1563,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1562,14 +1580,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1585,7 +1603,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1602,7 +1620,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1618,13 +1636,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1651,7 +1669,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1668,7 +1686,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1684,7 +1702,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1694,14 +1712,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1710,14 +1728,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1750,7 +1768,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1760,11 +1778,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1776,14 +1794,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1793,49 +1811,115 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>101</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1103.1099999999999</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>102</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>23</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>103</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>105</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>53</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>23</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>106</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1197.1099999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>108</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>109</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>110</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1974,10 +2058,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -332,10 +332,13 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>Friday, 13 June, 2025 6:38 PM</t>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>Friday, 13 June, 2025 6:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1867,7 +1870,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1881,45 +1884,78 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>107</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1197.1099999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>31</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>23</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>108</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1252.1099999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
         <v>109</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
         <v>110</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>111</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2068,10 +2104,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -185,12 +197,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -266,6 +272,9 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -302,7 +311,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>فلامنجو شفرات للنساء</t>
@@ -338,7 +347,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 6:57 PM</t>
+    <t>Friday, 13 June, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1243,7 +1252,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1253,14 +1262,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1269,7 +1278,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1286,11 +1295,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1302,14 +1311,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1359,7 +1368,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1385,11 +1394,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>38</v>
@@ -1401,14 +1410,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1418,11 +1427,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>38</v>
@@ -1434,7 +1443,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1451,11 +1460,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>38</v>
@@ -1467,14 +1476,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1484,11 +1493,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>38</v>
@@ -1500,31 +1509,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1533,7 +1542,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1546,18 +1555,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1583,11 +1592,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>38</v>
@@ -1606,7 +1615,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1620,10 +1629,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1649,14 +1658,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1665,28 +1674,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1698,31 +1707,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1731,14 +1740,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1748,11 +1757,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1764,7 +1773,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1814,11 +1823,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1913,49 +1922,115 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1252.1099999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>108</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>43</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>23</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>109</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>110</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>31</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>23</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>111</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1286.78</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>112</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>113</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>114</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2109,10 +2184,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 6:58 PM</t>
+    <t>Friday, 13 June, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -140,9 +155,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -347,7 +359,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 7:15 PM</t>
+    <t>Friday, 13 June, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1104,7 +1116,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1113,14 +1125,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1130,11 +1142,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1146,14 +1158,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1163,14 +1175,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1186,7 +1198,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1196,14 +1208,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1212,14 +1224,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1229,14 +1241,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1245,14 +1257,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1269,7 +1281,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1285,7 +1297,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1295,14 +1307,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1311,7 +1323,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1328,11 +1340,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1344,14 +1356,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1394,14 +1406,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1410,14 +1422,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1427,14 +1439,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1450,7 +1462,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1460,14 +1472,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1476,7 +1488,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1493,14 +1505,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1509,14 +1521,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1526,14 +1538,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1542,20 +1554,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1566,7 +1578,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1575,31 +1587,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1608,14 +1620,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1625,14 +1637,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1641,14 +1653,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1658,14 +1670,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,14 +1686,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1691,14 +1703,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1707,14 +1719,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1724,14 +1736,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,31 +1752,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1773,14 +1785,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1790,14 +1802,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,14 +1818,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1830,7 +1842,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1846,7 +1858,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1856,14 +1868,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1872,14 +1884,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1889,14 +1901,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1905,14 +1917,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1945,7 +1957,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1955,14 +1967,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1988,49 +2000,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q37" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>114</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>36</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>23</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>115</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1286.78</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>112</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>113</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>114</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1308.78</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>116</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>117</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>118</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2194,10 +2239,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -359,7 +359,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 7:22 PM</t>
+    <t>Friday, 13 June, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -128,6 +128,21 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -140,9 +155,6 @@
     <t>16.8300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DIAX 200MG 12 CAPS.</t>
   </si>
   <si>
@@ -194,9 +206,6 @@
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -287,6 +296,18 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -323,9 +344,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -350,16 +368,13 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 7:23 PM</t>
+    <t>Friday, 13 June, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1231,7 +1246,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1241,14 +1256,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1257,14 +1272,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1274,14 +1289,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1290,14 +1305,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1330,7 +1345,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1340,14 +1355,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1356,7 +1371,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1373,11 +1388,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1389,14 +1404,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1429,7 +1444,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1439,14 +1454,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1455,14 +1470,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1472,11 +1487,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>43</v>
@@ -1488,14 +1503,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1561,7 +1576,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1571,11 +1586,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>43</v>
@@ -1587,31 +1602,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1633,7 +1648,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1644,7 +1659,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1660,7 +1675,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1674,7 +1689,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>43</v>
@@ -1686,14 +1701,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1703,14 +1718,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1726,7 +1741,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1743,7 +1758,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1759,7 +1774,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1769,14 +1784,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1785,31 +1800,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1825,7 +1840,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1835,14 +1850,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1851,14 +1866,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1924,7 +1939,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1934,11 +1949,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1950,14 +1965,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1971,10 +1986,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1983,14 +1998,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2000,14 +2015,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2023,7 +2038,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2033,49 +2048,115 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1308.78</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>116</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>117</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>118</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>30</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>23</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>97</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>119</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>36</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>23</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>120</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1347.78</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>121</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>122</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>123</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2244,10 +2325,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -374,7 +374,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 7:27 PM</t>
+    <t>Friday, 13 June, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -344,6 +353,15 @@
     <t>2.00</t>
   </si>
   <si>
+    <t xml:space="preserve">شيلز رجالي </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -374,7 +392,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 7:28 PM</t>
+    <t>Friday, 13 June, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1483,15 +1501,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>43</v>
@@ -1503,14 +1521,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1520,11 +1538,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>43</v>
@@ -1536,14 +1554,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1609,7 +1627,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1619,11 +1637,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>43</v>
@@ -1635,31 +1653,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1681,7 +1699,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1692,7 +1710,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1708,7 +1726,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1722,7 +1740,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>43</v>
@@ -1734,14 +1752,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,14 +1769,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1774,7 +1792,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1791,7 +1809,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1807,7 +1825,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,14 +1835,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,31 +1851,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,14 +1884,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1906,7 +1924,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1923,7 +1941,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1939,7 +1957,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,14 +1967,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1965,14 +1983,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1986,10 +2004,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2015,14 +2033,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2038,7 +2056,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2048,11 +2066,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2064,14 +2082,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2081,14 +2099,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2097,14 +2115,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2114,49 +2132,115 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1347.78</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>121</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>122</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>123</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>124</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>30</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>23</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>100</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>125</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>36</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>23</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>126</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1439.78</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>127</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>128</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>129</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2335,10 +2419,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -392,7 +392,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 7:31 PM</t>
+    <t>Friday, 13 June, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -131,18 +146,12 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
     <t>17.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -239,6 +248,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>OFRAMAX 1 GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -257,6 +275,18 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -287,18 +317,12 @@
     <t>VARDE 20 MG 4 F.C. TABS</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -317,6 +341,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -326,6 +362,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -383,7 +425,22 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>محلول خليط</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
   </si>
   <si>
     <t>مخمريه العود الملكي</t>
@@ -1083,7 +1140,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1092,20 +1149,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1116,7 +1173,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1138,18 +1195,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1182,7 +1239,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1191,14 +1248,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1208,14 +1265,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1224,14 +1281,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1241,14 +1298,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1264,7 +1321,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1274,14 +1331,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1290,14 +1347,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1330,7 +1387,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1347,7 +1404,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1363,7 +1420,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1373,14 +1430,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1389,14 +1446,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1429,7 +1486,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1446,7 +1503,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1462,7 +1519,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1479,7 +1536,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1495,24 +1552,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1534,18 +1591,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1554,14 +1611,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1571,14 +1628,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1587,14 +1644,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1611,7 +1668,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1627,7 +1684,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1637,14 +1694,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1660,7 +1717,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1670,14 +1727,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1686,28 +1743,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1719,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1736,14 +1793,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1752,14 +1809,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1769,14 +1826,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1785,31 +1842,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1818,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1835,11 +1892,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1851,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1868,14 +1925,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1884,31 +1941,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1917,31 +1974,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1957,24 +2014,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1983,31 +2040,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2016,31 +2073,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2056,13 +2113,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2073,7 +2130,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2089,24 +2146,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2115,31 +2172,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2148,31 +2205,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2181,66 +2238,297 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1439.78</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>127</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>128</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>35</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>28</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>129</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>131</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>21</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>28</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>132</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>135</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>28</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>136</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>138</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>41</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>28</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>115</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>139</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>35</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>28</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>108</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>140</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>141</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>28</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>142</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>144</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>41</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>28</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>145</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1613.46</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>146</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>147</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>148</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2429,10 +2717,45 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -353,6 +353,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>ترمومتر ديجتال</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -449,7 +458,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 7:38 PM</t>
+    <t>Friday, 13 June, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2113,7 +2122,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2146,7 +2155,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2156,11 +2165,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2212,7 +2221,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2259,10 +2268,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2311,7 +2320,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2344,7 +2353,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2354,11 +2363,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2490,45 +2499,78 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>147</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>41</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>28</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>148</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>56</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1613.46</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>146</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>147</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>148</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1663.46</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>149</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>150</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>151</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2752,10 +2794,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -272,24 +272,27 @@
     <t>69.00</t>
   </si>
   <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
     <t>22.7700</t>
   </si>
   <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
     <t xml:space="preserve">REMOT SUN SCREEN CREAM  GEL</t>
   </si>
   <si>
@@ -458,7 +461,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 7:41 PM</t>
+    <t>Friday, 13 June, 2025 7:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1759,7 +1762,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1776,7 +1779,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1839,7 +1842,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1851,7 +1854,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1868,11 +1871,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1884,7 +1887,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1901,11 +1904,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1917,7 +1920,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1934,7 +1937,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1950,7 +1953,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1971,7 +1974,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>48</v>
@@ -1983,7 +1986,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2004,7 +2007,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2016,7 +2019,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2049,14 +2052,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2066,11 +2069,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2082,14 +2085,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2099,11 +2102,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2115,7 +2118,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2132,11 +2135,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2148,7 +2151,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2165,11 +2168,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2181,14 +2184,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2198,11 +2201,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2214,7 +2217,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2231,11 +2234,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>35</v>
@@ -2247,14 +2250,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2264,11 +2267,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2280,7 +2283,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2297,11 +2300,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2313,7 +2316,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2330,11 +2333,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2346,7 +2349,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2363,11 +2366,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2379,14 +2382,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,11 +2399,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2412,7 +2415,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2429,11 +2432,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2445,7 +2448,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2462,11 +2465,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>35</v>
@@ -2478,14 +2481,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2495,11 +2498,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2511,7 +2514,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2528,7 +2531,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2540,13 +2543,13 @@
     </row>
     <row r="51" ht="25.5" customHeight="1">
       <c r="P51" s="13">
-        <v>1663.46</v>
+        <v>1686.23</v>
       </c>
       <c r="Q51" s="13"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c t="s" r="A52" s="14">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2554,13 +2557,13 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c t="s" r="G52" s="15">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
       <c t="s" r="K52" s="17">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -194,6 +203,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -203,6 +224,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -248,6 +278,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>OFRAMAX 1 GM I.V. VIAL</t>
   </si>
   <si>
@@ -281,9 +320,6 @@
     <t>1:5</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>4.8000</t>
   </si>
   <si>
@@ -461,7 +497,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 7:47 PM</t>
+    <t>Friday, 13 June, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1281,10 +1317,10 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1293,14 +1329,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1310,11 +1346,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1326,14 +1362,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1350,7 +1386,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1366,7 +1402,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1376,11 +1412,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1392,14 +1428,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1416,7 +1452,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1432,7 +1468,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1449,7 +1485,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1465,7 +1501,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1475,11 +1511,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1491,14 +1527,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1515,7 +1551,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1531,7 +1567,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1541,14 +1577,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1557,14 +1593,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1574,11 +1610,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1590,20 +1626,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1611,10 +1647,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1623,14 +1659,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1640,14 +1676,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1656,14 +1692,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1673,14 +1709,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1689,31 +1725,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1722,14 +1758,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1739,11 +1775,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1762,7 +1798,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1772,14 +1808,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1788,14 +1824,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1828,7 +1864,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1838,14 +1874,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1854,31 +1890,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1887,14 +1923,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1904,14 +1940,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1920,14 +1956,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1937,11 +1973,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1953,14 +1989,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1970,14 +2006,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1986,28 +2022,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2019,14 +2055,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2036,11 +2072,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2052,31 +2088,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2085,31 +2121,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2118,24 +2154,24 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2158,24 +2194,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2184,14 +2220,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2201,11 +2237,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2224,7 +2260,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2234,14 +2270,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2250,14 +2286,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2290,7 +2326,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2304,10 +2340,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2316,14 +2352,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2333,11 +2369,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2356,7 +2392,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2373,7 +2409,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2422,7 +2458,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2432,14 +2468,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2448,7 +2484,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2465,14 +2501,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2481,14 +2517,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2498,11 +2534,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2514,14 +2550,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2531,49 +2567,181 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1686.23</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>150</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>151</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>152</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>154</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>44</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>28</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>131</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>155</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>35</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>28</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>121</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>156</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>157</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>28</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>158</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>160</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>44</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>28</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>161</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>1894.73</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>162</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>163</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>164</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2802,10 +2970,30 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -323,6 +332,21 @@
     <t>4.8000</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>9.2400</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -338,6 +362,18 @@
     <t>249.0000</t>
   </si>
   <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
     <t>TOPOPRAZAN 20 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -443,6 +479,18 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شيلز رجالي </t>
   </si>
   <si>
@@ -473,6 +521,9 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -497,7 +548,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 7:51 PM</t>
+    <t>Friday, 13 June, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1171,7 +1222,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1181,14 +1232,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1197,14 +1248,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1214,14 +1265,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1230,31 +1281,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1263,31 +1314,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1296,14 +1347,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1313,14 +1364,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1350,10 +1401,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1362,14 +1413,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1379,14 +1430,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1395,14 +1446,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1419,7 +1470,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1435,7 +1486,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1445,11 +1496,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1461,14 +1512,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1485,7 +1536,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1501,7 +1552,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1518,7 +1569,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1534,7 +1585,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1544,11 +1595,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1560,14 +1611,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1577,11 +1628,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1593,14 +1644,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1617,7 +1668,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1633,7 +1684,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1650,7 +1701,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1666,7 +1717,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1683,7 +1734,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1699,7 +1750,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1716,7 +1767,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1732,24 +1783,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1771,15 +1822,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1791,14 +1842,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1808,11 +1859,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1824,14 +1875,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1864,7 +1915,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1874,14 +1925,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1897,7 +1948,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1907,14 +1958,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1930,7 +1981,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1947,7 +1998,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1963,7 +2014,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1973,14 +2024,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1996,7 +2047,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2006,11 +2057,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2022,31 +2073,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2055,14 +2106,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2072,11 +2123,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2088,31 +2139,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2121,14 +2172,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2138,14 +2189,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2154,14 +2205,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2171,14 +2222,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2187,14 +2238,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,11 +2255,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2220,31 +2271,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2253,31 +2304,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2286,31 +2337,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2319,31 +2370,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2352,31 +2403,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2385,31 +2436,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2418,31 +2469,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2451,31 +2502,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2484,31 +2535,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2517,31 +2568,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2550,31 +2601,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2583,31 +2634,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2616,31 +2667,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2649,31 +2700,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2682,66 +2733,231 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>1894.73</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>162</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>163</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>164</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>170</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>47</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>31</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>168</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>171</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>47</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>31</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>143</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>172</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>38</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>31</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>133</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>173</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>174</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>31</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>175</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>177</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>47</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>31</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>178</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>1992.8900000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>179</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>180</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>181</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2990,10 +3206,35 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -548,7 +548,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 7:59 PM</t>
+    <t>Friday, 13 June, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -530,6 +530,12 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>محلول خليط</t>
   </si>
   <si>
@@ -545,10 +551,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>Friday, 13 June, 2025 8:01 PM</t>
+    <t>Friday, 13 June, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2872,7 +2875,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2882,11 +2885,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2898,14 +2901,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2915,49 +2918,82 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>179</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>47</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>31</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>174</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>62</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>1992.8900000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>179</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c t="s" r="Q60" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2027.8900000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
         <v>180</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
         <v>181</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>182</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3231,10 +3267,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -173,237 +173,246 @@
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>51.00</t>
+    <t>DIAX 200MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>9.2400</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOT SUN SCREEN CREAM  GEL</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>249.0000</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>TOPOPRAZAN 20 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>VARDE 20 MG 4 F.C. TABS</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
     <t>16.8300</t>
   </si>
   <si>
-    <t>DIAX 200MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:18</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>2:10</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>9.2400</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMOT SUN SCREEN CREAM  GEL</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>249.0000</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>TOPOPRAZAN 20 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>VARDE 20 MG 4 F.C. TABS</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -479,6 +488,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -551,7 +563,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 8:04 PM</t>
+    <t>Friday, 13 June, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1522,7 +1534,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1532,14 +1544,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1753,7 +1765,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1763,14 +1775,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1779,14 +1791,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1796,11 +1808,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1812,31 +1824,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1845,28 +1857,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1895,11 +1907,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1928,11 +1940,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1944,14 +1956,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1961,14 +1973,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1994,14 +2006,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2010,14 +2022,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2027,14 +2039,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2060,14 +2072,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2093,14 +2105,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2109,14 +2121,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,14 +2138,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2149,24 +2161,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2175,31 +2187,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2208,14 +2220,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,11 +2237,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2241,14 +2253,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2258,11 +2270,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2281,7 +2293,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2314,7 +2326,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,14 +2336,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2347,7 +2359,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,14 +2369,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2373,31 +2385,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2406,14 +2418,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,11 +2435,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2439,14 +2451,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2479,7 +2491,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2512,7 +2524,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2522,11 +2534,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2538,14 +2550,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2555,14 +2567,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2578,7 +2590,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2588,14 +2600,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2625,10 +2637,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2661,7 +2673,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2677,7 +2689,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2687,11 +2699,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2720,11 +2732,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2776,7 +2788,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2786,11 +2798,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2802,7 +2814,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2819,11 +2831,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2835,14 +2847,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2852,14 +2864,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,14 +2880,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2885,14 +2897,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2918,11 +2930,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -2941,7 +2953,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2951,49 +2963,82 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>183</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>47</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>31</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>178</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>62</v>
       </c>
-      <c t="s" r="Q60" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2027.8900000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>180</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>181</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>182</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2058.7199999999998</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>184</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>185</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>186</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3272,10 +3317,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -176,9 +185,6 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>0:2</t>
   </si>
   <si>
@@ -224,6 +230,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -293,6 +308,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -380,6 +404,15 @@
     <t>37.9200</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>TOPOPRAZAN 20 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -563,7 +596,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 8:14 PM</t>
+    <t>Friday, 13 June, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1270,7 +1303,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1280,14 +1313,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1296,14 +1329,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1313,11 +1346,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>20</v>
@@ -1329,28 +1362,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1362,31 +1395,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1395,14 +1428,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1412,14 +1445,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1449,10 +1482,10 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1461,14 +1494,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1478,11 +1511,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1494,14 +1527,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1518,7 +1551,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1534,7 +1567,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1551,7 +1584,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1560,14 +1593,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1577,14 +1610,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1593,14 +1626,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1610,14 +1643,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1626,14 +1659,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1643,11 +1676,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1659,14 +1692,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1676,11 +1709,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1692,14 +1725,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1709,14 +1742,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1725,14 +1758,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1742,14 +1775,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1758,14 +1791,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1775,14 +1808,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1831,7 +1864,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1841,14 +1874,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1857,31 +1890,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1890,14 +1923,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1907,14 +1940,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1936,7 +1969,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1944,7 +1977,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1956,14 +1989,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1973,11 +2006,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1989,14 +2022,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2006,14 +2039,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2022,7 +2055,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2039,11 +2072,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2055,14 +2088,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2072,14 +2105,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2088,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2105,14 +2138,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2121,14 +2154,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2138,14 +2171,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2154,14 +2187,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,14 +2204,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2187,31 +2220,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2220,14 +2253,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2237,14 +2270,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2253,14 +2286,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,11 +2303,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2286,31 +2319,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2319,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,14 +2369,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2352,14 +2385,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,14 +2402,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,14 +2418,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,11 +2435,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2418,31 +2451,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2451,31 +2484,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,28 +2517,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2517,31 +2550,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,28 +2583,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2583,20 +2616,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2607,7 +2640,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2623,21 +2656,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2649,31 +2682,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2682,28 +2715,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2715,31 +2748,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2748,28 +2781,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2781,31 +2814,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,28 +2847,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2854,21 +2887,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2880,31 +2913,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2913,28 +2946,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -2946,28 +2979,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -2979,66 +3012,198 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2058.7199999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>184</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>185</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>186</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>187</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>41</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>34</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>147</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>188</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>50</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>34</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>189</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>191</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>34</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>192</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>194</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>50</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>34</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>189</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2270.4250000000002</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>195</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>196</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>197</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3322,10 +3487,30 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>CARNIVITA FORTE 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>531.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -404,6 +416,15 @@
     <t>37.9200</t>
   </si>
   <si>
+    <t>SELENIUM-ACE 30 TABS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>390.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -440,6 +461,18 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -473,9 +506,6 @@
     <t>ترمومتر ديجتال</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -596,7 +626,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 8:16 PM</t>
+    <t>Friday, 13 June, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1353,7 +1383,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1408,15 +1438,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1428,20 +1458,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1452,7 +1482,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1461,14 +1491,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1478,14 +1508,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1494,14 +1524,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1511,14 +1541,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1567,7 +1597,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1577,14 +1607,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1593,14 +1623,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1610,14 +1640,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1626,14 +1656,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1643,14 +1673,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1659,14 +1689,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1676,14 +1706,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1692,14 +1722,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1765,7 +1795,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1775,11 +1805,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1791,14 +1821,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1808,14 +1838,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1824,7 +1854,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1841,11 +1871,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1857,14 +1887,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1874,14 +1904,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1890,14 +1920,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1937,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1923,14 +1953,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1940,11 +1970,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1956,20 +1986,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1977,10 +2007,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1989,28 +2019,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2022,14 +2052,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2039,11 +2069,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2062,7 +2092,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2072,11 +2102,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2088,14 +2118,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,11 +2135,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2121,14 +2151,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2138,14 +2168,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2154,14 +2184,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2187,14 +2217,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,14 +2234,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2220,14 +2250,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,14 +2267,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2253,14 +2283,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,14 +2300,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2286,14 +2316,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,14 +2333,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2319,31 +2349,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2352,20 +2382,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2376,7 +2406,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2392,7 +2422,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,11 +2432,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2418,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2451,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,11 +2498,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2484,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,14 +2531,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2517,14 +2547,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2564,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,14 +2580,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,14 +2597,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2583,28 +2613,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2616,31 +2646,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2649,31 +2679,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2689,21 +2719,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2715,28 +2745,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2748,31 +2778,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2781,28 +2811,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2814,31 +2844,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2854,24 +2884,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2880,20 +2910,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2920,13 +2950,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2937,7 +2967,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2959,7 +2989,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2986,21 +3016,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3012,28 +3042,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3045,31 +3075,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3078,28 +3108,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3111,28 +3141,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3144,66 +3174,165 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q65" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>198</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>54</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>38</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>199</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2270.4250000000002</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>195</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>196</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>197</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>200</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>201</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>38</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>202</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>204</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>54</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>38</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>199</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3341.4250000000002</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>205</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>206</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>207</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3507,10 +3636,25 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CARNIVITA FORTE 30 F.C. TAB</t>
   </si>
   <si>
@@ -95,18 +107,21 @@
     <t>531.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -209,6 +224,18 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -233,9 +260,6 @@
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>101.00</t>
   </si>
   <si>
@@ -350,12 +374,6 @@
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -449,6 +467,15 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>TRIAMERICAN 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>VARDE 20 MG 4 F.C. TABS</t>
   </si>
   <si>
@@ -551,7 +578,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -593,9 +623,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -626,7 +653,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 8:17 PM</t>
+    <t>Friday, 13 June, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1366,7 +1393,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1376,14 +1403,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1392,14 +1419,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1409,11 +1436,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1425,14 +1452,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1442,14 +1469,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1458,31 +1485,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1491,14 +1518,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1508,14 +1535,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1524,14 +1551,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1541,14 +1568,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1557,28 +1584,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1590,14 +1617,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1607,14 +1634,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1623,14 +1650,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1640,11 +1667,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1656,14 +1683,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1673,14 +1700,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1689,14 +1716,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1706,11 +1733,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1722,14 +1749,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1739,11 +1766,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1755,14 +1782,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1772,14 +1799,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1788,14 +1815,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1805,14 +1832,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1821,28 +1848,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1854,14 +1881,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,14 +1898,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1887,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1904,14 +1931,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1920,14 +1947,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1937,11 +1964,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1953,14 +1980,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1970,14 +1997,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2003,11 +2030,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2019,31 +2046,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2052,14 +2079,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2069,11 +2096,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2085,14 +2112,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2102,14 +2129,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2118,14 +2145,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2135,14 +2162,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2151,28 +2178,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2184,14 +2211,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,14 +2228,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2217,14 +2244,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2234,11 +2261,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2250,14 +2277,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2267,14 +2294,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2283,14 +2310,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2300,11 +2327,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2316,14 +2343,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2333,14 +2360,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2349,14 +2376,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2366,11 +2393,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2382,31 +2409,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2415,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2432,11 +2459,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2448,14 +2475,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,14 +2492,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2481,14 +2508,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,11 +2525,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2514,31 +2541,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2547,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2564,11 +2591,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2580,14 +2607,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,14 +2624,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2613,14 +2640,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,14 +2657,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2646,14 +2673,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,14 +2690,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,14 +2706,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2696,11 +2723,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2712,31 +2739,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2745,31 +2772,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2778,28 +2805,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2811,31 +2838,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2844,31 +2871,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2877,31 +2904,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,28 +2937,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2943,31 +2970,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2976,28 +3003,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3009,28 +3036,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3042,31 +3069,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,28 +3102,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3108,31 +3135,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,31 +3168,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,31 +3201,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3207,28 +3234,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3240,28 +3267,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3273,66 +3300,264 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3341.4250000000002</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>204</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>59</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>43</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>203</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>205</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>59</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>43</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>176</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>206</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>50</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>43</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>167</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>207</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>59</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>43</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>208</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>209</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>210</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>43</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>211</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>213</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>59</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>43</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>208</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3651.3649999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>214</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>215</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>216</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3651,10 +3876,40 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 8:23 PM</t>
+    <t>Friday, 13 June, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -86,6 +86,30 @@
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 30 GM</t>
   </si>
   <si>
@@ -140,9 +164,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -251,9 +272,6 @@
     <t>8:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -548,7 +566,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -569,9 +590,6 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -650,10 +668,22 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 8:24 PM</t>
+    <t>Friday, 13 June, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,24 +1456,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1452,14 +1482,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1469,14 +1499,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1485,14 +1515,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1502,14 +1532,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1518,14 +1548,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1535,14 +1565,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1551,14 +1581,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1568,14 +1598,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1584,28 +1614,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1617,14 +1647,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1634,14 +1664,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1650,31 +1680,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1683,14 +1713,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1700,14 +1730,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1737,10 +1767,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1749,14 +1779,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1773,7 +1803,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1789,7 +1819,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,14 +1829,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1815,14 +1845,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1832,14 +1862,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1848,20 +1878,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1869,10 +1899,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1905,7 +1935,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1927,7 +1957,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1954,7 +1984,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1987,7 +2017,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1997,7 +2027,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2020,7 +2050,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2037,7 +2067,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2053,7 +2083,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2070,7 +2100,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2086,7 +2116,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2096,14 +2126,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2112,7 +2142,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2129,11 +2159,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2145,14 +2175,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2162,14 +2192,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2185,24 +2215,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2218,7 +2248,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2228,14 +2258,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2244,28 +2274,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2284,7 +2314,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2294,11 +2324,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2310,14 +2340,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2350,7 +2380,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2360,14 +2390,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2383,7 +2413,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2393,11 +2423,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2409,14 +2439,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2426,14 +2456,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2442,14 +2472,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2459,11 +2489,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2482,7 +2512,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2492,14 +2522,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2508,14 +2538,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2525,11 +2555,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2541,20 +2571,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2565,7 +2595,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2574,14 +2604,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,11 +2621,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2607,31 +2637,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2640,14 +2670,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2680,7 +2710,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2697,7 +2727,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2713,7 +2743,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2727,7 +2757,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2739,14 +2769,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2756,14 +2786,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2772,14 +2802,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2789,14 +2819,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2805,14 +2835,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2822,14 +2852,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2838,14 +2868,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2855,14 +2885,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2878,7 +2908,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2918,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2917,7 +2947,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2928,7 +2958,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2944,24 +2974,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2970,24 +3000,24 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3010,21 +3040,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3036,20 +3066,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3057,7 +3087,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3069,31 +3099,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3102,31 +3132,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3142,13 +3172,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3159,7 +3189,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>118</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3175,24 +3205,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,31 +3231,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,31 +3264,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3267,20 +3297,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3307,21 +3337,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3340,21 +3370,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3366,28 +3396,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3399,31 +3429,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3432,31 +3462,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3465,31 +3495,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3505,59 +3535,158 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3651.3649999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>215</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>216</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>26</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>217</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>219</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>220</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>26</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>221</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>223</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>66</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>26</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
         <v>214</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>215</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>216</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3733.5250000000001</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>224</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>225</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>226</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3906,10 +4035,25 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -269,87 +269,99 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:1</t>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:18</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -392,6 +404,15 @@
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -521,7 +542,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>67.8300</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -596,51 +617,54 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز رجالي </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شيلز رجالي </t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>فلامنجو شفرات للنساء</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -683,7 +707,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 8:27 PM</t>
+    <t>Friday, 13 June, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2034,7 +2058,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2133,7 +2157,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2182,7 +2206,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2192,14 +2216,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2208,14 +2232,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2225,14 +2249,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2248,7 +2272,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2281,24 +2305,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2320,15 +2344,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2340,14 +2364,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2357,7 +2381,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2380,7 +2404,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2390,11 +2414,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2406,14 +2430,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2423,11 +2447,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2439,14 +2463,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2456,14 +2480,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2472,14 +2496,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2489,14 +2513,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2505,14 +2529,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2522,14 +2546,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2538,14 +2562,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2555,11 +2579,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2571,14 +2595,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2595,7 +2619,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2604,14 +2628,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2621,7 +2645,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2644,24 +2668,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2687,7 +2711,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2710,13 +2734,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2727,7 +2751,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2743,7 +2767,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2753,11 +2777,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2769,14 +2793,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2786,14 +2810,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2802,14 +2826,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2819,11 +2843,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2835,14 +2859,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2852,14 +2876,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2868,14 +2892,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2885,14 +2909,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2901,14 +2925,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2918,14 +2942,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2934,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2951,14 +2975,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2967,14 +2991,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2984,14 +3008,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3000,31 +3024,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3033,31 +3057,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3066,14 +3090,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3083,11 +3107,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3099,14 +3123,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3116,11 +3140,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3132,14 +3156,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3149,14 +3173,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3165,14 +3189,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3182,14 +3206,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3198,14 +3222,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3215,14 +3239,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,7 +3255,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3248,14 +3272,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>124</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3264,14 +3288,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3281,14 +3305,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3297,14 +3321,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3314,14 +3338,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3330,14 +3354,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3347,14 +3371,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3370,7 +3394,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3380,11 +3404,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3396,14 +3420,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3417,7 +3441,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3429,14 +3453,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3446,11 +3470,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3462,14 +3486,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3479,14 +3503,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3495,14 +3519,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3512,14 +3536,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3528,7 +3552,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3545,14 +3569,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3561,14 +3585,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3578,14 +3602,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3594,14 +3618,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3611,11 +3635,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3634,7 +3658,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3644,49 +3668,115 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3733.5250000000001</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>224</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>225</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>226</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>227</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>228</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>26</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>229</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>231</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>66</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>26</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>222</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3884.3649999999998</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>232</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>233</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>234</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4050,10 +4140,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -284,6 +284,18 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -311,6 +323,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -515,6 +536,15 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>TRILLERG EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>VARDE 20 MG 4 F.C. TABS</t>
   </si>
   <si>
@@ -527,6 +557,9 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
     <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -611,6 +644,15 @@
     <t>40.00</t>
   </si>
   <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -698,16 +740,16 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 8:34 PM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>Friday, 13 June, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2107,7 +2149,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2117,14 +2159,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2133,14 +2175,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2150,11 +2192,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2166,7 +2208,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2183,14 +2225,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2199,7 +2241,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2216,11 +2258,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2232,14 +2274,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2249,11 +2291,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2265,7 +2307,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2282,11 +2324,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2298,14 +2340,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2315,14 +2357,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2331,20 +2373,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2352,10 +2394,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2364,14 +2406,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2381,14 +2423,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2397,28 +2439,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2437,7 +2479,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2447,7 +2489,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2470,7 +2512,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2480,11 +2522,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2496,14 +2538,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2513,14 +2555,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2529,14 +2571,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2546,11 +2588,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2562,14 +2604,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2579,14 +2621,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2595,14 +2637,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2612,14 +2654,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2628,14 +2670,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2645,11 +2687,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2661,14 +2703,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2685,7 +2727,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2694,14 +2736,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2711,7 +2753,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2734,24 +2776,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2760,14 +2802,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2777,7 +2819,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2800,13 +2842,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2817,7 +2859,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2833,7 +2875,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2843,11 +2885,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2859,14 +2901,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2876,14 +2918,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2892,14 +2934,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2909,11 +2951,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2925,14 +2967,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2942,14 +2984,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2958,14 +3000,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,14 +3017,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2991,14 +3033,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,14 +3050,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3024,14 +3066,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,14 +3083,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3057,14 +3099,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,14 +3116,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3090,24 +3132,24 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3130,24 +3172,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,31 +3198,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3189,31 +3231,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3222,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3239,14 +3281,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3255,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3279,7 +3321,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3295,7 +3337,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3305,11 +3347,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3321,14 +3363,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3338,14 +3380,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3354,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3371,14 +3413,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>128</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3387,14 +3429,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3411,7 +3453,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3427,7 +3469,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3437,11 +3479,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3460,7 +3502,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3493,7 +3535,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3503,14 +3545,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3519,7 +3561,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3536,14 +3578,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3552,14 +3594,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3569,14 +3611,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3585,7 +3627,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3602,14 +3644,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3618,14 +3660,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3635,11 +3677,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3651,14 +3693,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3668,11 +3710,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3684,14 +3726,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3701,11 +3743,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3717,7 +3759,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3734,49 +3776,247 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>234</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>57</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>26</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>191</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>235</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>66</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>26</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>236</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>84</v>
       </c>
-      <c t="s" r="Q79" s="12">
+      <c t="s" r="Q81" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3884.3649999999998</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>232</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>233</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>234</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>237</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>238</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>26</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>239</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>241</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>242</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>26</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>176</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>243</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>66</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>26</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>236</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>244</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>245</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>26</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>236</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4165.9049999999997</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>246</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>247</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>248</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4150,10 +4390,40 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CARNIVITA FORTE 30 F.C. TAB</t>
   </si>
   <si>
@@ -731,9 +740,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -749,7 +755,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 8:43 PM</t>
+    <t>Friday, 13 June, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1627,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1631,14 +1637,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1647,14 +1653,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1671,7 +1677,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1687,7 +1693,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1697,14 +1703,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1713,14 +1719,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1730,11 +1736,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1746,28 +1752,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1779,31 +1785,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1812,14 +1818,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1829,14 +1835,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1866,10 +1872,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1878,14 +1884,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1895,11 +1901,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1911,14 +1917,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1935,7 +1941,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1951,7 +1957,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1965,10 +1971,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1984,7 +1990,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1998,10 +2004,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2017,24 +2023,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2043,20 +2049,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2083,7 +2089,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,14 +2099,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2116,7 +2122,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2126,14 +2132,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2149,7 +2155,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2159,14 +2165,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2175,14 +2181,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2199,7 +2205,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2215,7 +2221,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2265,7 +2271,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2281,7 +2287,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2298,7 +2304,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2314,7 +2320,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2331,7 +2337,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2347,7 +2353,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,14 +2363,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2373,14 +2379,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,14 +2396,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2413,7 +2419,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2446,24 +2452,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2485,15 +2491,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2522,11 +2528,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2538,14 +2544,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2578,7 +2584,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2611,7 +2617,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,14 +2627,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2644,7 +2650,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,14 +2660,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2670,14 +2676,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,11 +2693,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2710,7 +2716,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,14 +2726,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2743,7 +2749,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2759,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2786,14 +2792,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,14 +2808,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2825,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,31 +2841,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2875,24 +2881,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,14 +2907,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2925,7 +2931,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2941,7 +2947,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2958,7 +2964,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2974,7 +2980,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3007,7 +3013,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3021,7 +3027,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3033,14 +3039,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,14 +3056,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3073,7 +3079,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3090,7 +3096,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3106,7 +3112,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,14 +3122,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3132,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,14 +3155,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3186,10 +3192,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3198,14 +3204,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,14 +3221,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3231,14 +3237,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3254,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,31 +3270,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3297,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,11 +3320,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3330,14 +3336,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,11 +3353,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3363,14 +3369,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,7 +3386,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3403,7 +3409,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,14 +3419,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3436,7 +3442,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3452,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3469,7 +3475,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3485,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3502,7 +3508,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,11 +3518,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3535,7 +3541,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3552,7 +3558,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3568,7 +3574,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,14 +3584,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>135</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3594,14 +3600,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3611,14 +3617,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,14 +3633,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3667,7 +3673,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3700,7 +3706,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3710,11 +3716,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3726,14 +3732,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3743,11 +3749,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3776,14 +3782,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3792,14 +3798,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3809,14 +3815,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3825,14 +3831,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3842,14 +3848,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,14 +3864,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3879,7 +3885,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3891,14 +3897,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3908,11 +3914,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3931,7 +3937,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3941,11 +3947,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3957,14 +3963,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3974,49 +3980,82 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4165.9049999999997</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>246</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>247</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>26</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>239</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4192.9049999999997</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
         <v>248</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>249</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>250</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4420,10 +4459,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CIPROCIN 500MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>CLEAREST 14 CAPS</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
@@ -755,7 +764,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 8:50 PM</t>
+    <t>Friday, 13 June, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1872,10 +1881,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1974,7 +1983,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1990,7 +1999,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2004,10 +2013,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2023,7 +2032,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2037,10 +2046,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2056,24 +2065,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2082,20 +2091,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2122,7 +2131,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2188,7 +2197,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2238,7 +2247,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2254,7 +2263,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2304,7 +2313,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2320,7 +2329,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2337,7 +2346,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2353,7 +2362,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2370,7 +2379,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2386,7 +2395,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2396,14 +2405,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2452,7 +2461,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2485,24 +2494,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2524,15 +2533,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2561,11 +2570,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2617,7 +2626,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2650,7 +2659,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2683,7 +2692,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2726,11 +2735,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2749,7 +2758,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2782,7 +2791,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2874,31 +2883,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2914,24 +2923,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,14 +2949,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2964,7 +2973,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2980,7 +2989,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2997,7 +3006,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3013,7 +3022,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3046,7 +3055,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3060,7 +3069,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3072,14 +3081,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,14 +3098,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3112,7 +3121,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3129,7 +3138,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3145,7 +3154,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3225,10 +3234,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3303,31 +3312,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,11 +3362,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,11 +3395,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3402,14 +3411,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,7 +3428,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3442,7 +3451,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3461,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3475,7 +3484,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,7 +3494,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3508,7 +3517,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,14 +3527,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3541,7 +3550,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,11 +3560,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3574,7 +3583,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3591,7 +3600,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3607,7 +3616,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>138</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>62</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3706,7 +3715,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3739,7 +3748,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3749,11 +3758,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,11 +3791,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3815,14 +3824,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3848,11 +3857,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>60</v>
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3918,7 +3927,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3947,11 +3956,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,11 +3989,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -3996,14 +4005,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4013,49 +4022,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4192.9049999999997</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>248</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>249</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
         <v>250</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>26</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>242</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4245.9049999999997</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>251</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>252</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>253</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4464,10 +4506,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -293,6 +293,9 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -350,6 +353,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -401,6 +413,9 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -443,6 +458,12 @@
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -677,9 +698,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -764,7 +782,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 8:53 PM</t>
+    <t>Friday, 13 June, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2197,7 +2215,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2207,14 +2225,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2223,14 +2241,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2240,14 +2258,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2256,14 +2274,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2273,14 +2291,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2289,14 +2307,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2306,11 +2324,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2322,7 +2340,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2339,14 +2357,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2372,14 +2390,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2405,14 +2423,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2421,14 +2439,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2438,14 +2456,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2454,7 +2472,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2471,11 +2489,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2487,14 +2505,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2504,14 +2522,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2520,31 +2538,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2553,14 +2571,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2570,14 +2588,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2586,28 +2604,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2619,14 +2637,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2636,11 +2654,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2652,7 +2670,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2669,14 +2687,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2685,14 +2703,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2702,14 +2720,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2718,7 +2736,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2735,11 +2753,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2768,11 +2786,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2801,14 +2819,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2817,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2834,11 +2852,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2850,31 +2868,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2900,11 +2918,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2916,31 +2934,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2966,11 +2984,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2982,14 +3000,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2999,14 +3017,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3015,7 +3033,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3032,11 +3050,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3048,7 +3066,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3061,18 +3079,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3081,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3098,11 +3116,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3114,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3131,11 +3149,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3147,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3164,14 +3182,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3213,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3230,14 +3248,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3279,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3296,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3312,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3329,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3345,28 +3363,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3378,31 +3396,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3411,31 +3429,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3444,31 +3462,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3477,14 +3495,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3494,14 +3512,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3510,14 +3528,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3527,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3543,14 +3561,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3560,11 +3578,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3576,14 +3594,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3593,11 +3611,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3609,14 +3627,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3626,14 +3644,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3642,7 +3660,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3659,14 +3677,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>141</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3675,14 +3693,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3692,11 +3710,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3708,14 +3726,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3725,11 +3743,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3741,14 +3759,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3758,14 +3776,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3774,14 +3792,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>62</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3791,14 +3809,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3807,14 +3825,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3824,11 +3842,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3873,14 +3891,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3890,14 +3908,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3906,14 +3924,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3927,7 +3945,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3939,14 +3957,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3956,11 +3974,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3972,14 +3990,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3989,14 +4007,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4005,14 +4023,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4022,14 +4040,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4038,14 +4056,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4055,7 +4073,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4066,38 +4084,170 @@
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4245.9049999999997</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>249</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>250</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>26</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>251</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>252</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
         <v>253</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>26</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>189</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>254</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>62</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>26</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>248</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>255</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>256</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>26</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>248</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4412.9049999999997</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>257</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>258</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>259</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4511,10 +4661,30 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -413,9 +422,24 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -527,9 +551,6 @@
     <t>0:5</t>
   </si>
   <si>
-    <t>237.00</t>
-  </si>
-  <si>
     <t>37.9200</t>
   </si>
   <si>
@@ -782,7 +803,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 9:00 PM</t>
+    <t>Friday, 13 June, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1588,7 +1609,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1598,11 +1619,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1614,14 +1635,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1638,7 +1659,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1654,7 +1675,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1671,7 +1692,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1687,7 +1708,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1697,14 +1718,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1713,14 +1734,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1737,7 +1758,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1753,7 +1774,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1763,14 +1784,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1779,14 +1800,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1796,11 +1817,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1812,28 +1833,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1845,31 +1866,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1895,14 +1916,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1928,14 +1949,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1965,10 +1986,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2017,7 +2038,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2034,7 +2055,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2050,7 +2071,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2064,10 +2085,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2083,7 +2104,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2097,10 +2118,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2116,24 +2137,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2142,20 +2163,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2182,7 +2203,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2192,14 +2213,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2215,7 +2236,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,14 +2246,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2241,14 +2262,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2279,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2281,7 +2302,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2312,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2307,14 +2328,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2331,7 +2352,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2347,7 +2368,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2397,7 +2418,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2413,7 +2434,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2430,7 +2451,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2446,7 +2467,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2463,7 +2484,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2479,7 +2500,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2512,7 +2533,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,14 +2543,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2538,14 +2559,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,14 +2576,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2578,7 +2599,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2611,24 +2632,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2650,15 +2671,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2677,7 +2698,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2687,14 +2708,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,11 +2741,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2769,14 +2790,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,11 +2807,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2802,14 +2823,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2819,14 +2840,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2835,7 +2856,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2852,11 +2873,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2868,28 +2889,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +2939,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,14 +2955,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2974,21 +2995,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3066,31 +3087,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3099,14 +3120,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3116,14 +3137,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,14 +3153,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,14 +3170,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3165,31 +3186,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,11 +3236,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3231,14 +3252,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,14 +3269,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,14 +3285,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3281,14 +3302,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3297,14 +3318,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,14 +3335,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,14 +3351,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,14 +3368,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3363,14 +3384,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,14 +3401,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3403,7 +3424,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,14 +3434,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,14 +3450,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3467,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3469,7 +3490,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3500,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3502,24 +3523,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,31 +3549,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,31 +3582,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,11 +3632,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3627,14 +3648,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3644,14 +3665,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,14 +3681,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3677,14 +3698,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,14 +3714,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,11 +3731,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3726,14 +3747,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,14 +3764,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,14 +3780,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,14 +3797,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>203</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,14 +3813,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3809,14 +3830,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>146</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3825,14 +3846,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3865,7 +3886,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3879,10 +3900,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3891,14 +3912,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3908,14 +3929,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,14 +3945,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3941,11 +3962,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3957,14 +3978,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3990,14 +4011,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4007,14 +4028,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,14 +4044,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4040,14 +4061,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,14 +4077,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4073,11 +4094,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4089,14 +4110,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4106,14 +4127,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,14 +4143,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4139,14 +4160,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4162,7 +4183,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4172,11 +4193,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4188,14 +4209,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4205,49 +4226,148 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4412.9049999999997</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>257</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>258</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>259</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>260</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>26</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>196</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>261</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>65</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>26</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>255</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>262</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>263</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>26</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>255</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4559.6949999999997</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>264</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>265</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>266</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4681,10 +4801,25 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">DALINE  DROPS</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -530,6 +539,15 @@
     <t>0:7</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -803,7 +821,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 9:03 PM</t>
+    <t>Friday, 13 June, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2071,13 +2089,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2088,7 +2106,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2104,7 +2122,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2118,10 +2136,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2137,7 +2155,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2151,10 +2169,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2170,24 +2188,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2196,20 +2214,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2236,7 +2254,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2246,14 +2264,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2269,7 +2287,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2279,14 +2297,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2312,14 +2330,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2335,7 +2353,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2345,14 +2363,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2385,7 +2403,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2401,7 +2419,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2451,7 +2469,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2467,7 +2485,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2484,7 +2502,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2500,7 +2518,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2517,7 +2535,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2533,7 +2551,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2566,7 +2584,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2576,14 +2594,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2592,14 +2610,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2609,14 +2627,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2632,7 +2650,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2665,24 +2683,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2704,15 +2722,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2731,7 +2749,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2741,7 +2759,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2764,7 +2782,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2774,14 +2792,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2790,14 +2808,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2807,14 +2825,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2823,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2844,7 +2862,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2856,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2896,7 +2914,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2929,7 +2947,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2962,7 +2980,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2972,14 +2990,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2988,28 +3006,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3021,20 +3039,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3042,7 +3060,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3061,7 +3079,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3071,14 +3089,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3094,7 +3112,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3104,14 +3122,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3137,14 +3155,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3186,7 +3204,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3199,18 +3217,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3219,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3236,7 +3254,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3259,13 +3277,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3276,7 +3294,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3292,7 +3310,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3302,7 +3320,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3325,7 +3343,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3342,7 +3360,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3358,7 +3376,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3372,7 +3390,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3384,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3401,14 +3419,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3434,14 +3452,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3457,7 +3475,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3467,14 +3485,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3483,14 +3501,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3500,11 +3518,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3533,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3549,14 +3567,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3566,14 +3584,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3599,14 +3617,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3628,7 +3646,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3639,7 +3657,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3655,24 +3673,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3681,14 +3699,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3698,7 +3716,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3721,7 +3739,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3731,11 +3749,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3747,14 +3765,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3771,7 +3789,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3787,7 +3805,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3804,7 +3822,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3830,14 +3848,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3853,7 +3871,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3870,7 +3888,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3886,7 +3904,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3896,14 +3914,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>210</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3929,14 +3947,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>154</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3945,14 +3963,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3962,14 +3980,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3978,14 +3996,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3995,14 +4013,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4011,14 +4029,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4051,7 +4069,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4061,11 +4079,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4077,14 +4095,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4094,11 +4112,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4110,14 +4128,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,14 +4145,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4143,14 +4161,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4160,14 +4178,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4176,7 +4194,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4193,14 +4211,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4209,14 +4227,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>63</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4226,14 +4244,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4242,14 +4260,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4259,11 +4277,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4275,14 +4293,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4292,11 +4310,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4308,14 +4326,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4325,49 +4343,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4559.6949999999997</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>264</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>265</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>266</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>267</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>65</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>26</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>261</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>268</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>269</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>26</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>261</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4618.415</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>270</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>271</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>272</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4816,10 +4900,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -383,9 +392,6 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -422,6 +428,12 @@
     <t>300.00</t>
   </si>
   <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -590,6 +602,12 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>TOPOPRAZAN 20 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -821,7 +839,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 9:04 PM</t>
+    <t>Friday, 13 June, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,21 +1612,21 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1620,7 +1638,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1633,7 +1651,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1660,7 +1678,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1670,11 +1688,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1686,14 +1704,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1710,7 +1728,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1726,7 +1744,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1743,7 +1761,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1759,7 +1777,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1769,14 +1787,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1785,14 +1803,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1809,7 +1827,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1825,7 +1843,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1835,14 +1853,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1851,14 +1869,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1868,11 +1886,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1884,28 +1902,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1917,31 +1935,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1950,14 +1968,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1967,14 +1985,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2000,14 +2018,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2037,10 +2055,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2089,13 +2107,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2122,13 +2140,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2139,7 +2157,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2155,7 +2173,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2169,10 +2187,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2188,7 +2206,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2202,10 +2220,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2221,24 +2239,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2247,20 +2265,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2287,7 +2305,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2297,14 +2315,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2320,7 +2338,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2330,14 +2348,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2346,14 +2364,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2386,7 +2404,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2396,14 +2414,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2412,14 +2430,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2436,7 +2454,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2452,7 +2470,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2502,7 +2520,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2518,7 +2536,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2535,7 +2553,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2551,7 +2569,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2568,7 +2586,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2584,7 +2602,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2617,7 +2635,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2627,14 +2645,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2650,7 +2668,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2660,14 +2678,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2676,14 +2694,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2693,11 +2711,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2709,31 +2727,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2742,28 +2760,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2775,14 +2793,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2792,11 +2810,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2808,14 +2826,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2825,14 +2843,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2848,7 +2866,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2862,7 +2880,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2874,14 +2892,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2891,14 +2909,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2907,14 +2925,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,11 +2942,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2940,14 +2958,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,11 +2975,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2973,14 +2991,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,14 +3008,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3006,14 +3024,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,11 +3041,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3046,24 +3064,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,14 +3090,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3089,11 +3107,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3105,31 +3123,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3138,14 +3156,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3155,11 +3173,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3171,14 +3189,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3188,14 +3206,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>175</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3204,14 +3222,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,11 +3239,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3237,14 +3255,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,14 +3272,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3270,31 +3288,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3303,14 +3321,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,11 +3338,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3336,31 +3354,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,14 +3387,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,11 +3404,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3402,14 +3420,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,14 +3437,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3435,14 +3453,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,11 +3470,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3468,14 +3486,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,14 +3503,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,14 +3519,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,14 +3536,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3534,14 +3552,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,14 +3569,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3567,14 +3585,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,14 +3602,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3600,14 +3618,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,14 +3635,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3633,14 +3651,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,14 +3668,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3666,14 +3684,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3701,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,31 +3717,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,31 +3750,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3765,31 +3783,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,28 +3816,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3831,31 +3849,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,31 +3882,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,28 +3915,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3930,31 +3948,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,31 +3981,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>216</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,31 +4014,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>157</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4036,21 +4054,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4062,31 +4080,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4095,31 +4113,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4128,28 +4146,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4161,28 +4179,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4194,31 +4212,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4234,24 +4252,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4260,20 +4278,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4281,7 +4299,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4293,31 +4311,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4333,24 +4351,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4359,28 +4377,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4405,53 +4423,152 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4618.415</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>270</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>271</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>272</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>29</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>208</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>273</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>68</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>29</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>267</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>274</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>275</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>29</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>267</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>4772.7150000000001</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>276</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>277</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>278</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4910,10 +5027,25 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -839,7 +839,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 9:15 PM</t>
+    <t>Friday, 13 June, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4054,7 +4054,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -713,6 +713,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>جهاز ريد</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -740,6 +749,9 @@
     <t>40.00</t>
   </si>
   <si>
+    <t>سائل باربار</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
@@ -839,7 +851,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 9:16 PM</t>
+    <t>Friday, 13 June, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3955,7 +3967,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3965,14 +3977,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3988,7 +4000,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3998,7 +4010,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4021,7 +4033,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4031,14 +4043,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4054,7 +4066,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4064,11 +4076,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4097,14 +4109,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>222</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4113,14 +4125,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4130,14 +4142,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>161</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4146,14 +4158,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4167,10 +4179,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,14 +4191,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4196,14 +4208,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4229,11 +4241,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4245,14 +4257,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4262,11 +4274,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4278,14 +4290,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4311,14 +4323,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4328,14 +4340,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4344,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4361,14 +4373,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4377,7 +4389,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4394,14 +4406,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4410,14 +4422,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>66</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4427,14 +4439,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4443,14 +4455,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4460,11 +4472,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4476,14 +4488,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4493,11 +4505,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4509,14 +4521,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4526,49 +4538,115 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>277</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>68</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>29</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>271</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>99</v>
       </c>
-      <c t="s" r="Q99" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4772.7150000000001</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>276</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>277</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c t="s" r="Q100" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>278</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>279</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>29</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>271</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>4962.7150000000001</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>280</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>281</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>282</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5042,10 +5120,20 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -176,339 +176,357 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>29:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>31.00</t>
   </si>
   <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>CIPROCIN 500MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DALINE  DROPS</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DIAX 200MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
     <t>31.0000</t>
   </si>
   <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE 500MG 10 TAB</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CIPROCIN 500MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>CLEAREST 14 CAPS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DALINE  DROPS</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DIAX 200MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:10</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:18</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>42.5000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -518,6 +536,12 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -638,9 +662,6 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>VARDE 20 MG 4 F.C. TABS</t>
   </si>
   <si>
@@ -737,7 +758,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>حنه جلوري سوده 1 كيس</t>
@@ -755,10 +776,10 @@
     <t>سائل ريد</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -851,7 +872,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 9:17 PM</t>
+    <t>Friday, 13 June, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1938,7 +1959,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1947,14 +1968,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1964,11 +1985,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1997,14 +2018,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2067,7 +2088,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2103,7 +2124,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2251,7 +2272,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2317,7 +2338,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2482,7 +2503,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2614,7 +2635,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2694,7 +2715,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2793,7 +2814,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2878,7 +2899,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2888,14 +2909,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2954,14 +2975,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,11 +3008,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3003,14 +3024,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3020,11 +3041,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,11 +3074,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3086,14 +3107,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,14 +3140,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3135,28 +3156,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3168,28 +3189,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3201,14 +3222,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3218,14 +3239,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3251,11 +3272,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3267,14 +3288,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,14 +3305,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>179</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3307,7 +3328,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3317,7 +3338,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3340,7 +3361,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,14 +3371,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3366,7 +3387,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3379,18 +3400,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3399,14 +3420,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3416,11 +3437,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3432,31 +3453,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3465,14 +3486,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3482,11 +3503,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3498,14 +3519,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3515,14 +3536,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3531,14 +3552,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,11 +3569,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3564,14 +3585,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,14 +3602,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3597,14 +3618,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,14 +3635,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,14 +3651,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,14 +3668,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3663,14 +3684,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,14 +3701,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3696,14 +3717,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,11 +3734,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3729,14 +3750,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3767,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,14 +3783,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,14 +3800,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3795,14 +3816,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,14 +3833,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3828,31 +3849,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3861,31 +3882,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3894,14 +3915,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3911,11 +3932,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3927,14 +3948,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,11 +3965,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3960,14 +3981,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,11 +3998,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3993,14 +4014,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4010,14 +4031,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4026,14 +4047,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4043,14 +4064,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,14 +4080,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4076,14 +4097,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4092,7 +4113,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4109,14 +4130,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4125,14 +4146,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4142,11 +4163,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4158,14 +4179,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4175,14 +4196,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>222</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4191,14 +4212,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4208,14 +4229,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>161</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,14 +4245,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>68</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4241,14 +4262,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,14 +4278,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4274,14 +4295,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4297,7 +4318,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4307,11 +4328,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4323,14 +4344,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4363,7 +4384,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4373,11 +4394,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4389,14 +4410,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4406,14 +4427,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4422,14 +4443,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4439,14 +4460,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4455,7 +4476,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4472,14 +4493,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4488,14 +4509,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>58</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4505,14 +4526,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4521,14 +4542,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4538,11 +4559,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4554,14 +4575,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4571,11 +4592,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4587,14 +4608,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4604,49 +4625,115 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>4962.7150000000001</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>280</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>281</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>282</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>284</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>68</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>29</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>278</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>285</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>286</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>29</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>278</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5209.7150000000001</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>287</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>288</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>289</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5130,10 +5217,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -362,6 +371,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -428,6 +449,12 @@
     <t>300.00</t>
   </si>
   <si>
+    <t>LEVANIC 750 MG 5 TAB</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>LEVCET 5MG 20 TAB.</t>
   </si>
   <si>
@@ -554,25 +581,19 @@
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
-    <t>1:5</t>
-  </si>
-  <si>
     <t>4.8000</t>
   </si>
   <si>
     <t>QUIBRON T/SR 300MG 100 TAB</t>
   </si>
   <si>
-    <t>2:10</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
-    <t>9.2400</t>
-  </si>
-  <si>
-    <t>0:7</t>
+    <t>22.4400</t>
+  </si>
+  <si>
+    <t>0:17</t>
   </si>
   <si>
     <t>RANI-F 20MG 6 SACHETS</t>
@@ -674,6 +695,12 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -872,7 +899,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 9:51 PM</t>
+    <t>Friday, 13 June, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2484,10 +2511,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2496,14 +2523,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2520,7 +2547,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2536,7 +2563,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2586,7 +2613,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2602,7 +2629,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2612,11 +2639,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2628,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2645,11 +2672,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2661,14 +2688,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2678,14 +2705,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2694,14 +2721,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2711,14 +2738,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2727,7 +2754,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2744,11 +2771,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2760,14 +2787,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2777,14 +2804,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2793,20 +2820,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2814,10 +2841,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2826,14 +2853,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2843,14 +2870,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2859,28 +2886,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2892,14 +2919,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2909,14 +2936,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>148</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2925,14 +2952,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2942,11 +2969,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2958,14 +2985,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2975,14 +3002,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2998,7 +3025,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3008,14 +3035,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3024,14 +3051,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3041,11 +3068,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3057,14 +3084,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3074,14 +3101,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3097,7 +3124,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3111,7 +3138,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3123,14 +3150,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3140,14 +3167,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3173,11 +3200,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3189,7 +3216,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3202,15 +3229,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3222,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3239,14 +3266,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3255,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3272,11 +3299,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3288,31 +3315,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3321,14 +3348,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3338,11 +3365,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3354,14 +3381,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3371,14 +3398,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3387,14 +3414,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3404,14 +3431,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3420,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3437,11 +3464,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3453,31 +3480,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3486,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3503,11 +3530,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3519,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3536,14 +3563,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3552,31 +3579,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3585,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3602,14 +3629,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3618,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3635,14 +3662,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3651,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3668,11 +3695,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3691,7 +3718,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3701,14 +3728,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3717,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3734,14 +3761,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3757,7 +3784,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3767,14 +3794,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3790,7 +3817,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3800,14 +3827,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3816,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3833,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3849,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3866,14 +3893,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3889,7 +3916,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3899,14 +3926,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3922,21 +3949,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3948,31 +3975,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3981,31 +4008,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4014,31 +4041,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4047,14 +4074,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4064,11 +4091,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4080,14 +4107,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4097,14 +4124,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4113,7 +4140,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4130,14 +4157,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4146,14 +4173,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4163,11 +4190,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4179,14 +4206,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4196,11 +4223,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4212,14 +4239,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4229,11 +4256,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>58</v>
@@ -4245,7 +4272,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4262,14 +4289,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4285,7 +4312,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4295,14 +4322,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4311,14 +4338,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4328,11 +4355,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4344,14 +4371,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4361,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4377,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4394,14 +4421,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4410,14 +4437,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>68</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4427,14 +4454,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4443,14 +4470,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4460,11 +4487,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4476,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4493,14 +4520,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4516,7 +4543,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4526,14 +4553,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4542,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4559,11 +4586,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>99</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4575,14 +4602,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>68</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4596,7 +4623,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4608,14 +4635,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>68</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4625,14 +4652,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4641,14 +4668,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4658,14 +4685,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4674,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>68</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4691,7 +4718,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4702,38 +4729,170 @@
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5209.7150000000001</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>288</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>289</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>29</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>290</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>291</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>292</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>29</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>223</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>293</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>68</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>29</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
         <v>287</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>288</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>289</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>294</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>295</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>29</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>287</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5424.3549999999996</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>296</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>297</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>298</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5227,10 +5386,30 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -701,6 +701,12 @@
     <t>30.00</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -899,7 +905,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 9:54 PM</t>
+    <t>Friday, 13 June, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3982,7 +3988,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +3998,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4008,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4041,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4058,14 +4064,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4081,24 +4087,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,11 +4130,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4140,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,7 +4163,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4180,7 +4186,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,11 +4196,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4206,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,11 +4229,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4256,14 +4262,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4272,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,14 +4295,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,14 +4311,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>68</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,14 +4328,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4338,14 +4344,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4355,11 +4361,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4371,14 +4377,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4388,14 +4394,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,14 +4410,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4421,14 +4427,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>238</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4454,14 +4460,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>175</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,14 +4493,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4503,14 +4509,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4520,11 +4526,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4536,14 +4542,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4553,11 +4559,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4569,14 +4575,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4586,11 +4592,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4602,14 +4608,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>68</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4619,11 +4625,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4635,7 +4641,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4652,14 +4658,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4668,14 +4674,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,11 +4691,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>58</v>
@@ -4701,14 +4707,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,14 +4724,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4741,7 +4747,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>68</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,11 +4757,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4767,14 +4773,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4784,11 +4790,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4807,7 +4813,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>68</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4817,11 +4823,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4833,14 +4839,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>68</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4850,7 +4856,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4861,38 +4867,71 @@
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5424.3549999999996</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>296</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
         <v>297</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>29</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>289</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5476.3549999999996</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
         <v>298</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>299</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>300</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5406,10 +5445,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -71,21 +86,27 @@
     <t>34.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>102.00</t>
   </si>
   <si>
+    <t>135.6600</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t>33.6600</t>
   </si>
   <si>
-    <t>AMBEZIM-G 30 F.C. TABS.</t>
-  </si>
-  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -215,9 +236,6 @@
     <t>CIPROCIN 500MG 10 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>53.00</t>
   </si>
   <si>
@@ -278,9 +296,6 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DIAX 200MG 12 CAPS.</t>
   </si>
   <si>
@@ -293,9 +308,6 @@
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -353,6 +365,15 @@
     <t>23.0400</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -500,9 +521,6 @@
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -905,7 +923,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:00 PM</t>
+    <t>Friday, 13 June, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1579,7 +1597,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1589,14 +1607,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1605,14 +1623,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1622,14 +1640,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1638,14 +1656,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1688,11 +1706,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1704,28 +1722,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1737,7 +1755,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1750,15 +1768,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1787,11 +1805,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1820,14 +1838,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1886,14 +1904,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1935,7 +1953,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1952,14 +1970,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1985,14 +2003,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2001,31 +2019,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2034,31 +2052,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2084,14 +2102,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2150,14 +2168,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2166,14 +2184,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2183,14 +2201,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2199,31 +2217,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2232,31 +2250,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2331,31 +2349,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2364,28 +2382,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2414,14 +2432,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2430,14 +2448,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2447,14 +2465,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2496,14 +2514,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2517,7 +2535,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2546,14 +2564,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2569,7 +2587,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2579,14 +2597,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2612,14 +2630,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2668,7 +2686,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2685,7 +2703,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2701,7 +2719,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2711,11 +2729,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2760,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2777,14 +2795,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2810,14 +2828,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2843,14 +2861,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2876,14 +2894,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2892,20 +2910,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2913,10 +2931,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2925,14 +2943,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2958,28 +2976,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3008,14 +3026,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3041,14 +3059,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3057,14 +3075,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3074,11 +3092,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3140,11 +3158,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3173,14 +3191,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3206,11 +3224,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3262,7 +3280,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3272,14 +3290,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3295,7 +3313,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3305,11 +3323,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3321,31 +3339,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3354,14 +3372,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3371,11 +3389,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3394,21 +3412,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3420,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3437,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,11 +3488,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3486,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3503,14 +3521,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>194</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3526,7 +3544,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,11 +3554,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3552,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3569,14 +3587,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3585,31 +3603,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3618,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3635,7 +3653,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3658,13 +3676,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3675,7 +3693,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3691,7 +3709,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,7 +3719,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3724,7 +3742,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3734,14 +3752,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3750,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,11 +3785,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3783,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3800,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3816,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3833,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3849,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3866,14 +3884,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3882,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3899,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3915,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3932,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3948,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3965,14 +3983,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3981,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3998,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4014,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,14 +4049,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4047,14 +4065,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,14 +4082,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4080,14 +4098,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,14 +4115,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4126,7 +4144,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4137,7 +4155,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4153,24 +4171,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4179,31 +4197,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4219,24 +4237,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,31 +4263,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4285,24 +4303,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4318,13 +4336,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4335,7 +4353,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4357,18 +4375,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4384,24 +4402,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4410,31 +4428,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4443,31 +4461,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>240</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,31 +4494,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>175</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4509,31 +4527,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4542,31 +4560,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,20 +4593,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4599,7 +4617,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4615,24 +4633,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4641,31 +4659,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4674,31 +4692,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4707,31 +4725,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4740,31 +4758,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4773,31 +4791,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>65</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4806,31 +4824,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4839,31 +4857,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>68</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4872,66 +4890,132 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5476.3549999999996</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>298</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>299</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>300</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>301</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>26</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>36</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>295</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>302</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>303</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>36</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>295</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5824.3549999999996</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>304</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>305</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>306</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5450,10 +5534,20 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -413,6 +413,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -746,6 +755,12 @@
     <t>67.8300</t>
   </si>
   <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -788,9 +803,6 @@
     <t>جهاز ريد</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
     <t>140.0000</t>
   </si>
   <si>
@@ -923,7 +935,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:03 PM</t>
+    <t>Friday, 13 June, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2785,7 +2797,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2802,7 +2814,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2818,7 +2830,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2835,7 +2847,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2851,7 +2863,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2861,11 +2873,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2898,10 +2910,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,14 +2939,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2950,7 +2962,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2983,24 +2995,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3016,24 +3028,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3059,14 +3071,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3075,14 +3087,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,7 +3104,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3125,14 +3137,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>167</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3181,7 +3193,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3191,14 +3203,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3224,14 +3236,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,11 +3269,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3313,7 +3325,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3346,7 +3358,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3356,14 +3368,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3379,7 +3391,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3389,14 +3401,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3405,28 +3417,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3445,21 +3457,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3478,7 +3490,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,11 +3500,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3504,14 +3516,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,14 +3533,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3544,7 +3556,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3554,14 +3566,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3570,14 +3582,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,14 +3599,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3603,14 +3615,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,14 +3632,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>203</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3643,7 +3655,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,11 +3665,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3669,31 +3681,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3709,24 +3721,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3742,7 +3754,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3752,14 +3764,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3775,7 +3787,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3792,7 +3804,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3808,7 +3820,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,14 +3830,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3834,14 +3846,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3863,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3874,7 +3886,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3888,7 +3900,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3900,14 +3912,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,14 +3929,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3940,7 +3952,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3954,10 +3966,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3966,14 +3978,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,14 +3995,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3999,14 +4011,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4028,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,7 +4044,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4049,11 +4061,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4065,14 +4077,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,14 +4094,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,14 +4110,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4115,14 +4127,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4131,14 +4143,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,14 +4160,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,14 +4176,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,14 +4193,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4197,31 +4209,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4230,31 +4242,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4263,14 +4275,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,11 +4292,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4296,14 +4308,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4336,7 +4348,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,11 +4358,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4362,14 +4374,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,14 +4391,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,14 +4407,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,14 +4424,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4428,14 +4440,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,14 +4457,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4461,14 +4473,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,14 +4490,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4501,7 +4513,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,14 +4523,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4534,7 +4546,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,14 +4556,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>246</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,14 +4572,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4577,14 +4589,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>181</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,14 +4605,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4614,10 +4626,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,14 +4638,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4643,14 +4655,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,14 +4671,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4676,11 +4688,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4692,14 +4704,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>65</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4709,11 +4721,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4725,14 +4737,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4758,14 +4770,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,14 +4787,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,14 +4803,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4808,14 +4820,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,7 +4836,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4841,14 +4853,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4857,14 +4869,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,14 +4886,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>51</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,14 +4902,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4907,11 +4919,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4923,14 +4935,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,11 +4952,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4956,14 +4968,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,49 +4985,115 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5824.3549999999996</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>304</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>305</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>26</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>36</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>299</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>306</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>307</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>36</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>299</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6134.3549999999996</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>308</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>309</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>310</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5544,10 +5622,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -47,66 +47,69 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>135.6600</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>33.6600</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>ALKAPRESS 10MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ALL-VENT SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>135.6600</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>AMBEZIM-G 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -344,6 +347,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -368,9 +380,6 @@
     <t>ESMORAP 40MG 14 CAPS</t>
   </si>
   <si>
-    <t>138.00</t>
-  </si>
-  <si>
     <t>138.0000</t>
   </si>
   <si>
@@ -404,6 +413,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -494,9 +512,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -533,9 +548,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -665,6 +677,12 @@
     <t>390.0000</t>
   </si>
   <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -854,6 +872,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -914,16 +935,13 @@
     <t>محلول خليط</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>48.0000</t>
   </si>
   <si>
     <t>مخمريه العود الملكي</t>
@@ -935,7 +953,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:07 PM</t>
+    <t>Friday, 13 June, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1609,7 +1627,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1619,14 +1637,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1635,14 +1653,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1659,7 +1677,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1708,7 +1726,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1725,7 +1743,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1734,14 +1752,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1751,14 +1769,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1767,31 +1785,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1800,14 +1818,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1817,14 +1835,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1833,14 +1851,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1850,14 +1868,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1866,14 +1884,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1883,14 +1901,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1899,14 +1917,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1916,14 +1934,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1932,14 +1950,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1949,14 +1967,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1965,14 +1983,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1982,14 +2000,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2015,14 +2033,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2031,14 +2049,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2048,14 +2066,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2064,31 +2082,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2097,14 +2115,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2114,14 +2132,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2130,7 +2148,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2163,14 +2181,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2180,14 +2198,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2196,14 +2214,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2213,14 +2231,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2229,7 +2247,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2246,14 +2264,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2262,7 +2280,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2275,18 +2293,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2312,14 +2330,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2328,14 +2346,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2345,14 +2363,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2378,14 +2396,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2394,7 +2412,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2407,18 +2425,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2427,14 +2445,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2444,14 +2462,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2460,14 +2478,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2477,14 +2495,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2493,7 +2511,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2517,7 +2535,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2526,7 +2544,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2543,14 +2561,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2559,14 +2577,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2580,10 +2598,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2592,14 +2610,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2609,14 +2627,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2632,7 +2650,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2642,14 +2660,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2658,14 +2676,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2675,14 +2693,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2698,7 +2716,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2715,7 +2733,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2731,7 +2749,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2741,14 +2759,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2781,7 +2799,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2797,7 +2815,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2807,14 +2825,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2830,7 +2848,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2847,7 +2865,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2863,7 +2881,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2880,7 +2898,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2896,7 +2914,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2906,14 +2924,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2922,14 +2940,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2955,14 +2973,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2972,14 +2990,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2988,14 +3006,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3028,24 +3046,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3061,7 +3079,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3075,10 +3093,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3087,31 +3105,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3137,14 +3155,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3186,14 +3204,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3203,14 +3221,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3219,14 +3237,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3236,14 +3254,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3269,14 +3287,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3285,14 +3303,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3302,14 +3320,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3325,7 +3343,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3335,14 +3353,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3368,14 +3386,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3384,14 +3402,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3401,14 +3419,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3434,14 +3452,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3457,24 +3475,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3490,7 +3508,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3500,14 +3518,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3516,31 +3534,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3549,14 +3567,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3570,10 +3588,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3599,14 +3617,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3615,14 +3633,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>203</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3648,14 +3666,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3665,14 +3683,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3681,14 +3699,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3698,14 +3716,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3714,7 +3732,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3727,18 +3745,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3747,14 +3765,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3764,14 +3782,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3780,31 +3798,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3813,14 +3831,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,14 +3848,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3846,14 +3864,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,14 +3881,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3879,14 +3897,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>51</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3929,14 +3947,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3945,14 +3963,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,14 +3980,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3978,14 +3996,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3995,14 +4013,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4011,14 +4029,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4028,14 +4046,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4044,14 +4062,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4061,14 +4079,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4084,7 +4102,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4098,10 +4116,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4117,7 +4135,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4127,14 +4145,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4150,7 +4168,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4164,10 +4182,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4176,14 +4194,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4197,10 +4215,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4209,14 +4227,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4226,14 +4244,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4242,14 +4260,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,14 +4277,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4275,31 +4293,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4308,31 +4326,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>66</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4341,7 +4359,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4354,18 +4372,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4374,31 +4392,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4407,31 +4425,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4440,31 +4458,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4473,31 +4491,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4506,31 +4524,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4539,31 +4557,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4572,31 +4590,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4605,20 +4623,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4626,10 +4644,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>251</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4645,24 +4663,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>184</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4678,24 +4696,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4704,31 +4722,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4737,31 +4755,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4770,31 +4788,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4803,20 +4821,20 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4827,7 +4845,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4836,31 +4854,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4869,31 +4887,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4902,7 +4920,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4915,18 +4933,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4935,31 +4953,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>51</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4968,31 +4986,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>66</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5014,18 +5032,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5034,66 +5052,165 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6134.3549999999996</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>308</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>309</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>289</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>37</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>238</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>310</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c t="s" r="Q113" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>311</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>26</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>37</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>306</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>312</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>313</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>37</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>306</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6292.875</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>314</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>315</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>316</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5632,10 +5749,25 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -953,7 +962,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:12 PM</t>
+    <t>Friday, 13 June, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1759,7 +1768,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1792,21 +1801,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>32</v>
@@ -1818,7 +1827,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1831,7 +1840,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1858,7 +1867,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1868,11 +1877,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>32</v>
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1908,7 +1917,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1924,7 +1933,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1941,7 +1950,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1967,14 +1976,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2007,7 +2016,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2023,7 +2032,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2082,31 +2091,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2115,31 +2124,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2172,7 +2181,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2188,7 +2197,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2235,10 +2244,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2271,7 +2280,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2293,7 +2302,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2320,13 +2329,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2337,7 +2346,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2353,7 +2362,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2367,10 +2376,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2396,14 +2405,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2419,13 +2428,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2436,7 +2445,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2452,13 +2461,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2485,7 +2494,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2518,7 +2527,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2528,14 +2537,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2584,7 +2593,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2617,7 +2626,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2627,11 +2636,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>32</v>
@@ -2664,10 +2673,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2749,7 +2758,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2782,7 +2791,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2792,11 +2801,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>32</v>
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2825,7 +2834,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2848,7 +2857,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2914,7 +2923,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2931,7 +2940,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2947,7 +2956,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2964,7 +2973,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2980,7 +2989,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2990,11 +2999,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3023,14 +3032,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3039,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3079,7 +3088,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3112,24 +3121,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3145,24 +3154,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3221,11 +3230,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>32</v>
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>172</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3310,7 +3319,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3386,11 +3395,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>32</v>
@@ -3409,7 +3418,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3442,7 +3451,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3475,7 +3484,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3485,14 +3494,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3508,7 +3517,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3518,14 +3527,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3534,28 +3543,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>32</v>
@@ -3574,21 +3583,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>32</v>
@@ -3607,7 +3616,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3617,11 +3626,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>32</v>
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3673,7 +3682,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>207</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>210</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3772,7 +3781,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3782,11 +3791,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>32</v>
@@ -3798,31 +3807,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3838,24 +3847,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3871,7 +3880,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3904,7 +3913,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3914,14 +3923,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3947,11 +3956,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>32</v>
@@ -3970,7 +3979,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3996,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4013,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4036,7 +4045,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4050,7 +4059,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>32</v>
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4102,7 +4111,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4116,10 +4125,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4145,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4161,14 +4170,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,14 +4187,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4194,7 +4203,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4211,11 +4220,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4244,14 +4253,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4277,14 +4286,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4343,14 +4352,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4359,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4376,14 +4385,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4392,20 +4401,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4413,10 +4422,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4425,28 +4434,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4458,28 +4467,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4491,24 +4500,24 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4531,21 +4540,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4557,20 +4566,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4581,7 +4590,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4597,24 +4606,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4630,24 +4639,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4663,21 +4672,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4689,31 +4698,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4729,13 +4738,13 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4743,10 +4752,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>257</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4755,7 +4764,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4768,18 +4777,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4788,31 +4797,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4821,20 +4830,20 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4861,13 +4870,13 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4894,21 +4903,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4920,28 +4929,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4953,7 +4962,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4966,18 +4975,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4986,31 +4995,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5019,31 +5028,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5052,28 +5061,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5085,31 +5094,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5118,31 +5127,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>104</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5151,66 +5160,99 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6292.875</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>314</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>315</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
         <v>316</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>40</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>309</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6329.5050000000001</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>317</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>318</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>319</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5764,10 +5806,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALLEAR 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -110,6 +119,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>12:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
@@ -134,9 +155,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>12.4800</t>
   </si>
   <si>
@@ -515,7 +533,7 @@
     <t>LEVCET 5MG 20 TAB.</t>
   </si>
   <si>
-    <t>42.5000</t>
+    <t>85.0000</t>
   </si>
   <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
@@ -563,6 +581,12 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -686,12 +710,15 @@
     <t>390.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -761,6 +788,15 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -962,7 +998,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:14 PM</t>
+    <t>Friday, 13 June, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1719,7 +1755,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1728,14 +1764,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1745,7 +1781,7 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
@@ -1768,7 +1804,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1778,14 +1814,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1801,7 +1837,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1811,14 +1847,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1827,20 +1863,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1851,7 +1887,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1867,7 +1903,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1884,7 +1920,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1900,24 +1936,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1926,14 +1962,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1943,14 +1979,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1959,14 +1995,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1983,7 +2019,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1999,7 +2035,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2009,14 +2045,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2025,14 +2061,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2042,14 +2078,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2058,14 +2094,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2075,14 +2111,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2091,14 +2127,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2115,7 +2151,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2124,28 +2160,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2157,14 +2193,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2174,14 +2210,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2190,28 +2226,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2223,14 +2259,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2240,14 +2276,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2263,7 +2299,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2273,14 +2309,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2289,14 +2325,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2310,10 +2346,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2322,20 +2358,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2346,7 +2382,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2379,7 +2415,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2395,13 +2431,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2409,10 +2445,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2421,14 +2457,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2438,14 +2474,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2454,31 +2490,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2494,7 +2530,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2511,7 +2547,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2527,24 +2563,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2560,7 +2596,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,14 +2606,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2586,14 +2622,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2603,14 +2639,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2619,14 +2655,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2636,14 +2672,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2659,7 +2695,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2669,14 +2705,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2692,7 +2728,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2702,14 +2738,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2718,14 +2754,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2735,14 +2771,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2758,7 +2794,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2768,14 +2804,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2784,14 +2820,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2801,14 +2837,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2824,7 +2860,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2834,14 +2870,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2850,14 +2886,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2867,14 +2903,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2883,14 +2919,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2907,7 +2943,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2923,7 +2959,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2933,14 +2969,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2956,7 +2992,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2973,7 +3009,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2989,7 +3025,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3022,7 +3058,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3032,14 +3068,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3048,14 +3084,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,14 +3101,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3081,7 +3117,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3098,11 +3134,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3114,14 +3150,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3131,14 +3167,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3154,24 +3190,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3201,7 +3237,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3213,31 +3249,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3246,14 +3282,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,14 +3299,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3279,14 +3315,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3296,14 +3332,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3312,14 +3348,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3329,14 +3365,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3345,14 +3381,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3362,14 +3398,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3378,14 +3414,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3395,14 +3431,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3411,14 +3447,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3428,14 +3464,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,14 +3480,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3461,14 +3497,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3484,7 +3520,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3501,7 +3537,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3517,7 +3553,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3527,14 +3563,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3543,7 +3579,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3560,14 +3596,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,31 +3612,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3609,14 +3645,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3626,14 +3662,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3642,14 +3678,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,14 +3695,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3682,13 +3718,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3699,7 +3735,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3715,7 +3751,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3725,14 +3761,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3741,14 +3777,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3758,14 +3794,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>210</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3774,14 +3810,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3791,14 +3827,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3807,14 +3843,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,14 +3860,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3840,31 +3876,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>218</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3880,7 +3916,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,14 +3926,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3913,7 +3949,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,14 +3959,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,31 +3975,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3979,7 +4015,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +4025,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4012,7 +4048,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,14 +4058,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4038,14 +4074,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,14 +4091,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4078,7 +4114,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,14 +4124,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4104,14 +4140,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4157,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,7 +4173,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4154,11 +4190,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4170,14 +4206,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4223,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4210,7 +4246,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,14 +4256,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4243,7 +4279,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4257,10 +4293,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4269,14 +4305,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4322,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,14 +4338,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4355,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4371,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4388,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4375,7 +4411,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4421,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4408,7 +4444,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4422,10 +4458,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4441,21 +4477,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4467,31 +4503,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,31 +4536,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4533,31 +4569,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,31 +4602,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,31 +4635,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4632,31 +4668,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4665,28 +4701,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4698,28 +4734,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4738,24 +4774,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,31 +4800,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>260</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4804,24 +4840,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>161</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>290</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4830,28 +4866,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4870,21 +4906,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>69</v>
+        <v>272</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4896,31 +4932,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4929,31 +4965,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4962,31 +4998,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4995,31 +5031,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5035,24 +5071,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,28 +5097,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5094,28 +5130,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5127,31 +5163,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5160,31 +5196,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5193,66 +5229,231 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>75</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q116" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>320</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>22</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>47</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>321</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q117" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6329.5050000000001</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>317</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>318</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>319</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>322</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>302</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>47</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>323</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>324</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>304</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>47</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>250</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>326</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>22</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>47</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>321</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>327</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>328</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>47</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>321</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6718.9549999999999</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>329</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>330</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>331</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5811,10 +6012,35 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -998,7 +998,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:17 PM</t>
+    <t>Friday, 13 June, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -572,6 +572,15 @@
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -629,12 +638,18 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>5:3</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -704,9 +719,6 @@
     <t>SELENIUM-ACE 30 TABS</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
     <t>390.0000</t>
   </si>
   <si>
@@ -827,91 +839,91 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>ترمومتر ديجتال</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>جهاز ريد</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>سائل باربار</t>
+  </si>
+  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>20.00</t>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
   </si>
   <si>
     <t>20.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>36:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>ترمومتر ديجتال</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>جهاز ريد</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>سائل باربار</t>
-  </si>
-  <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -3520,7 +3532,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3537,7 +3549,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3553,7 +3565,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3563,14 +3575,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3579,14 +3591,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3596,14 +3608,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3619,7 +3631,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3652,7 +3664,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,14 +3674,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3685,7 +3697,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3695,14 +3707,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3711,28 +3723,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>35</v>
@@ -3751,21 +3763,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>35</v>
@@ -3784,7 +3796,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3794,14 +3806,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3810,31 +3822,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3850,7 +3862,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3860,7 +3872,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3883,7 +3895,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3900,7 +3912,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3909,14 +3921,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3926,11 +3938,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>35</v>
@@ -3942,7 +3954,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3959,14 +3971,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>223</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3988,7 +4000,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3999,7 +4011,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4015,7 +4027,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4025,11 +4037,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>35</v>
@@ -4041,31 +4053,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,14 +4086,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4091,14 +4103,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4114,7 +4126,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4124,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4140,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4157,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4180,7 +4192,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,14 +4202,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4206,14 +4218,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4223,11 +4235,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>35</v>
@@ -4239,14 +4251,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4256,14 +4268,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4272,14 +4284,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4289,14 +4301,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,14 +4317,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,14 +4334,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4338,14 +4350,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,14 +4367,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4378,7 +4390,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4388,11 +4400,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4411,7 +4423,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,14 +4433,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4444,7 +4456,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4454,14 +4466,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4477,7 +4489,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4491,7 +4503,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4503,14 +4515,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4520,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4543,7 +4555,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,14 +4565,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4569,14 +4581,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4586,14 +4598,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4602,14 +4614,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4619,14 +4631,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4642,24 +4654,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>104</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4668,31 +4680,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4701,14 +4713,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4718,14 +4730,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4734,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4751,11 +4763,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4767,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,11 +4796,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4800,14 +4812,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4817,14 +4829,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4850,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4866,14 +4878,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4883,14 +4895,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4899,14 +4911,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4932,14 +4944,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4949,14 +4961,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4965,14 +4977,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4982,14 +4994,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>272</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5015,14 +5027,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>167</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>302</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,14 +5043,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5048,14 +5060,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5064,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5081,14 +5093,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5097,14 +5109,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5114,11 +5126,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5130,14 +5142,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>75</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5147,11 +5159,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5163,14 +5175,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5196,14 +5208,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5213,14 +5225,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5229,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5246,14 +5258,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5262,7 +5274,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5279,14 +5291,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>113</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5295,14 +5307,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5312,14 +5324,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5335,7 +5347,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>304</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5345,14 +5357,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5368,7 +5380,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5378,11 +5390,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5394,14 +5406,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5411,49 +5423,115 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>330</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>22</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>47</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>325</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q121" s="12">
+      <c t="s" r="Q122" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6718.9549999999999</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>329</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>330</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>331</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>332</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>47</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>325</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6918.9549999999999</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>333</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>334</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>335</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6037,10 +6115,20 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -131,468 +131,462 @@
     <t>30.6900</t>
   </si>
   <si>
-    <t>ANTI-COX II 15MG 30 TAB.</t>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>CARNIVITA FORTE 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>531.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>CIPROCIN 500MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DALINE  DROPS</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>DIAX 200MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVANIC 750 MG 5 TAB</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
   </si>
   <si>
     <t>111.00</t>
   </si>
   <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTODINE20    6 AMP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>CARNIVITA FORTE 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>531.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE 500MG 10 TAB</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>CIPROCIN 500MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>CLEAREST 14 CAPS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DALINE  DROPS</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>DIAX 200MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:10</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:18</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVANIC 750 MG 5 TAB</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:16</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
     <t>73.2600</t>
   </si>
   <si>
@@ -884,7 +878,13 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز ناموس صيني </t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -929,9 +929,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -965,9 +962,6 @@
     <t>قطن 50جم</t>
   </si>
   <si>
-    <t>17:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -1010,7 +1004,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:35 PM</t>
+    <t>Friday, 13 June, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1882,7 +1876,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1915,17 +1909,17 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1954,11 +1948,11 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1981,7 +1975,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1991,11 +1985,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>35</v>
@@ -2007,14 +2001,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2031,7 +2025,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2047,7 +2041,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2064,7 +2058,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2080,7 +2074,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2090,14 +2084,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2106,14 +2100,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2130,7 +2124,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2146,7 +2140,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2156,14 +2150,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2172,14 +2166,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2189,14 +2183,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2205,31 +2199,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2238,31 +2232,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2271,14 +2265,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2295,7 +2289,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2311,7 +2305,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2321,14 +2315,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2358,10 +2352,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2370,14 +2364,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2394,7 +2388,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2416,7 +2410,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2443,13 +2437,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2460,7 +2454,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2476,7 +2470,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2490,10 +2484,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2502,14 +2496,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2519,14 +2513,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2542,13 +2536,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2559,7 +2553,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2575,13 +2569,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2608,7 +2602,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2618,14 +2612,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2641,7 +2635,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2651,14 +2645,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2667,14 +2661,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2684,14 +2678,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2707,7 +2701,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2740,7 +2734,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2750,11 +2744,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>35</v>
@@ -2787,10 +2781,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2799,14 +2793,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2816,14 +2810,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2832,14 +2826,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2849,14 +2843,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2872,7 +2866,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2905,7 +2899,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2915,11 +2909,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>35</v>
@@ -2931,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2948,7 +2942,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2971,7 +2965,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2981,14 +2975,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3037,7 +3031,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3054,7 +3048,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3070,7 +3064,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3087,7 +3081,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3103,7 +3097,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3113,11 +3107,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3129,14 +3123,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3146,14 +3140,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3162,14 +3156,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3179,14 +3173,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3202,7 +3196,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3235,24 +3229,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3268,24 +3262,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3294,7 +3288,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3311,11 +3305,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3327,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,14 +3338,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3360,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3377,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3393,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3410,14 +3404,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3433,7 +3427,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3443,14 +3437,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3459,14 +3453,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3476,14 +3470,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3492,14 +3486,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3509,14 +3503,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3532,7 +3526,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3549,7 +3543,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3565,7 +3559,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3582,7 +3576,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3598,7 +3592,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3608,14 +3602,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3624,14 +3618,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3641,11 +3635,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>35</v>
@@ -3657,14 +3651,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3674,14 +3668,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3690,14 +3684,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3707,14 +3701,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3723,28 +3717,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>35</v>
@@ -3756,31 +3750,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3789,31 +3783,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3822,28 +3816,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>35</v>
@@ -3862,7 +3856,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3872,14 +3866,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3888,14 +3882,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3905,14 +3899,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3928,7 +3922,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3938,14 +3932,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,14 +3948,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3971,14 +3965,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>223</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3987,14 +3981,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4004,7 +3998,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4027,24 +4021,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4053,31 +4047,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4086,14 +4080,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,14 +4097,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4126,7 +4120,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4136,14 +4130,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4159,7 +4153,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,14 +4163,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4185,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,11 +4196,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>35</v>
@@ -4218,14 +4212,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,14 +4229,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4258,7 +4252,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4284,14 +4278,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4301,11 +4295,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>35</v>
@@ -4324,7 +4318,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4338,10 +4332,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4350,14 +4344,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4367,14 +4361,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4390,7 +4384,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,14 +4394,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4423,7 +4417,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4466,11 +4460,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4489,7 +4483,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4503,10 +4497,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4522,7 +4516,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4536,10 +4530,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,7 +4542,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4565,14 +4559,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4581,14 +4575,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>35</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,14 +4592,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4614,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4631,14 +4625,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4654,7 +4648,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4664,14 +4658,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4687,24 +4681,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4713,31 +4707,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4746,24 +4740,24 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4786,21 +4780,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4812,24 +4806,24 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4852,24 +4846,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4891,18 +4885,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>277</v>
+        <v>98</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>278</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4924,7 +4918,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4951,13 +4945,13 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4965,7 +4959,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4990,15 +4984,15 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5017,13 +5011,13 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5034,7 +5028,7 @@
         <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5056,7 +5050,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5089,7 +5083,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5097,10 +5091,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5109,28 +5103,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5142,28 +5136,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5175,7 +5169,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5188,15 +5182,15 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5208,28 +5202,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5241,7 +5235,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5254,15 +5248,15 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5274,7 +5268,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5287,15 +5281,15 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>26</v>
@@ -5307,31 +5301,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5340,7 +5334,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5353,15 +5347,15 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5373,28 +5367,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5406,31 +5400,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5439,7 +5433,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5452,15 +5446,15 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5472,28 +5466,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5501,13 +5495,13 @@
     </row>
     <row r="124" ht="25.5" customHeight="1">
       <c r="P124" s="13">
-        <v>6918.9549999999999</v>
+        <v>6987.3249999999998</v>
       </c>
       <c r="Q124" s="13"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
       <c t="s" r="A125" s="14">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -5515,13 +5509,13 @@
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
       <c t="s" r="G125" s="15">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="16"/>
       <c t="s" r="K125" s="17">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L125" s="17"/>
       <c r="M125" s="17"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -941,15 +950,12 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
     <t xml:space="preserve">شيلز رجالي </t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -1004,7 +1010,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:38 PM</t>
+    <t>Friday, 13 June, 2025 10:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2047,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2058,7 +2064,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2074,7 +2080,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2084,14 +2090,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2100,14 +2106,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2124,7 +2130,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2140,7 +2146,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2150,14 +2156,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2166,14 +2172,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2183,14 +2189,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2199,31 +2205,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2232,31 +2238,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2265,14 +2271,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2289,7 +2295,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2305,7 +2311,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2315,14 +2321,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2352,10 +2358,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2364,14 +2370,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2388,7 +2394,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2410,7 +2416,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2437,13 +2443,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2454,7 +2460,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2470,7 +2476,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2484,10 +2490,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2496,14 +2502,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2513,14 +2519,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2536,13 +2542,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2553,7 +2559,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2569,13 +2575,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2602,7 +2608,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2612,14 +2618,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2635,7 +2641,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2645,14 +2651,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2701,7 +2707,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2734,7 +2740,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2744,11 +2750,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>35</v>
@@ -2781,10 +2787,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2793,14 +2799,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2826,14 +2832,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2843,14 +2849,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2866,7 +2872,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2899,7 +2905,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2909,11 +2915,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>35</v>
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2942,7 +2948,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2965,7 +2971,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,14 +2981,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3031,7 +3037,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3048,7 +3054,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3064,7 +3070,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3081,7 +3087,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3097,7 +3103,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3107,11 +3113,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3144,10 +3150,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3156,14 +3162,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3173,14 +3179,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3196,7 +3202,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3229,24 +3235,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3262,24 +3268,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3288,7 +3294,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3305,11 +3311,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3371,14 +3377,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>178</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,14 +3410,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>181</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3427,7 +3433,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3470,14 +3476,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3486,14 +3492,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3503,14 +3509,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3526,7 +3532,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3543,7 +3549,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3559,7 +3565,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3576,7 +3582,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3592,7 +3598,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3609,7 +3615,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3625,7 +3631,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3658,7 +3664,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3691,7 +3697,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3717,28 +3723,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>35</v>
@@ -3757,24 +3763,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,31 +3789,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3816,28 +3822,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>35</v>
@@ -3849,14 +3855,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3866,14 +3872,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3889,7 +3895,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,14 +3905,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>221</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>224</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3988,7 +3994,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,11 +4004,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>35</v>
@@ -4014,31 +4020,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4054,24 +4060,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4087,7 +4093,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,11 +4202,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>35</v>
@@ -4219,7 +4225,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4235,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,14 +4268,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4285,7 +4291,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4299,7 +4305,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>35</v>
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4351,7 +4357,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4365,10 +4371,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4377,14 +4383,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,14 +4433,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,7 +4449,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4460,11 +4466,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,14 +4499,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4509,14 +4515,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4559,14 +4565,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,14 +4581,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,14 +4598,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,14 +4631,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4664,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>104</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4674,20 +4680,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4695,10 +4701,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,14 +4713,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,14 +4730,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4740,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,11 +4763,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,7 +4796,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4813,7 +4819,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,11 +4829,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4860,10 +4866,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,14 +4878,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,14 +4895,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>101</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4945,7 +4951,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4959,10 +4965,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,14 +4977,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,11 +4994,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5004,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>112</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5044,7 +5050,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5061,7 +5067,7 @@
         <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>298</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5087,14 +5093,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5109,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,14 +5126,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,14 +5142,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5176,7 +5182,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5192,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5202,14 +5208,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5225,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>57</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5235,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,11 +5258,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5268,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,14 +5291,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5308,7 +5314,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5324,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5351,14 +5357,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>110</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5367,14 +5373,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,14 +5390,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5400,14 +5406,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,14 +5423,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5433,14 +5439,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5450,11 +5456,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5466,14 +5472,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5483,49 +5489,115 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>330</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>22</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>44</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>325</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q124" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6987.3249999999998</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>331</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
         <v>332</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>44</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>325</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>7079.3249999999998</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
         <v>333</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>334</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>335</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6119,10 +6191,20 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -356,531 +356,534 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVANIC 750 MG 5 TAB</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>22.4400</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOT SUN SCREEN CREAM  GEL</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>249.0000</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SELENIUM-ACE 30 TABS</t>
+  </si>
+  <si>
+    <t>390.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>TOPOPRAZAN 20 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRIAMERICAN 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>TRILLERG EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>VARDE 20 MG 4 F.C. TABS</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>67.8300</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>ترمومتر ديجتال</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>جهاز ريد</t>
+  </si>
+  <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:10</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:18</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVANIC 750 MG 5 TAB</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:16</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>73.2600</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>22.4400</t>
-  </si>
-  <si>
-    <t>0:17</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMOT SUN SCREEN CREAM  GEL</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>249.0000</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SELENIUM-ACE 30 TABS</t>
-  </si>
-  <si>
-    <t>390.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>TOPOPRAZAN 20 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TRIAMERICAN 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>TRILLERG EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>VARDE 20 MG 4 F.C. TABS</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>VENTOCOUGH SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>-2:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>67.8300</t>
-  </si>
-  <si>
-    <t>VONSECA 20MG 14 TAB</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>36:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>ترمومتر ديجتال</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>جهاز ريد</t>
-  </si>
-  <si>
     <t>140.0000</t>
   </si>
   <si>
@@ -1010,7 +1013,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:41 PM</t>
+    <t>Friday, 13 June, 2025 10:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2658,7 +2661,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -4852,7 +4855,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4866,7 +4869,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4878,14 +4881,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4911,14 +4914,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4944,7 +4947,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4961,11 +4964,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>26</v>
@@ -4977,7 +4980,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4994,7 +4997,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5010,14 +5013,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5043,14 +5046,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5060,11 +5063,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>75</v>
@@ -5076,7 +5079,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5093,14 +5096,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5109,7 +5112,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5126,14 +5129,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5142,14 +5145,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5159,11 +5162,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5175,14 +5178,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5208,7 +5211,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5241,7 +5244,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5258,11 +5261,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5274,14 +5277,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5291,11 +5294,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5307,7 +5310,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5324,11 +5327,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5340,7 +5343,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5361,7 +5364,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>26</v>
@@ -5373,7 +5376,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5406,7 +5409,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5423,7 +5426,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5439,14 +5442,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5456,7 +5459,7 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
@@ -5472,14 +5475,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5493,7 +5496,7 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>75</v>
@@ -5505,7 +5508,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5522,7 +5525,7 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5538,14 +5541,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5555,7 +5558,7 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
@@ -5567,13 +5570,13 @@
     </row>
     <row r="126" ht="25.5" customHeight="1">
       <c r="P126" s="13">
-        <v>7079.3249999999998</v>
+        <v>7111.0050000000001</v>
       </c>
       <c r="Q126" s="13"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
       <c t="s" r="A127" s="14">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -5581,13 +5584,13 @@
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
       <c t="s" r="G127" s="15">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="16"/>
       <c t="s" r="K127" s="17">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L127" s="17"/>
       <c r="M127" s="17"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -1013,7 +1013,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:44 PM</t>
+    <t>Friday, 13 June, 2025 10:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -693,6 +693,15 @@
   </si>
   <si>
     <t>6.7200</t>
+  </si>
+  <si>
+    <t>RAPIZAPINE 30 MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>29.40</t>
+  </si>
+  <si>
+    <t>29.4000</t>
   </si>
   <si>
     <t>RELAXON 30 CAP</t>
@@ -4030,7 +4039,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,14 +4049,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4056,31 +4065,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4096,24 +4105,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4129,7 +4138,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,14 +4181,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4188,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4221,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,11 +4247,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>35</v>
@@ -4261,7 +4270,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4327,7 +4336,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4341,7 +4350,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>35</v>
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4393,7 +4402,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4407,10 +4416,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,14 +4445,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4452,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,14 +4478,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4485,7 +4494,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4502,11 +4511,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4518,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4551,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4601,14 +4610,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>35</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4667,14 +4676,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4700,14 +4709,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4716,20 +4725,20 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4737,10 +4746,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4749,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4799,11 +4808,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4832,7 +4841,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4855,7 +4864,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4865,7 +4874,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4902,10 +4911,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>159</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4931,14 +4940,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4947,14 +4956,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4964,14 +4973,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4987,7 +4996,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5001,10 +5010,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5013,14 +5022,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5030,11 +5039,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5046,14 +5055,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5063,14 +5072,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5086,7 +5095,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5103,7 +5112,7 @@
         <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>302</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5129,14 +5138,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,14 +5154,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5162,14 +5171,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5178,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5195,11 +5204,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5211,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5228,11 +5237,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5244,14 +5253,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5261,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>57</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5284,7 +5293,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5317,7 +5326,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5327,11 +5336,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5343,7 +5352,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5360,14 +5369,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5376,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5393,14 +5402,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5409,14 +5418,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5426,14 +5435,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5442,14 +5451,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5459,11 +5468,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5475,14 +5484,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5492,14 +5501,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5508,14 +5517,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5525,14 +5534,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>113</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5541,14 +5550,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5558,7 +5567,7 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
@@ -5569,38 +5578,71 @@
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>7111.0050000000001</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>334</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>335</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
         <v>336</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>44</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>329</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7140.4049999999997</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>337</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>338</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>339</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6204,10 +6246,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -1022,7 +1022,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:46 PM</t>
+    <t>Friday, 13 June, 2025 10:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -302,6 +302,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>COPAD 10.000 30 CAPS.</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>70.9500</t>
+  </si>
+  <si>
     <t xml:space="preserve">DALINE  DROPS</t>
   </si>
   <si>
@@ -656,7 +665,7 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>51.0000</t>
+    <t>102.0000</t>
   </si>
   <si>
     <t>PETRO 30 TAB</t>
@@ -1022,7 +1031,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:52 PM</t>
+    <t>Friday, 13 June, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2455,13 +2464,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2472,7 +2481,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2488,13 +2497,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2505,7 +2514,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2521,7 +2530,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2535,10 +2544,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2587,13 +2596,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2604,7 +2613,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2620,13 +2629,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2653,7 +2662,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2663,14 +2672,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2686,7 +2695,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2696,14 +2705,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2752,7 +2761,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2785,7 +2794,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2795,11 +2804,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>35</v>
@@ -2832,10 +2841,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2844,14 +2853,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2917,7 +2926,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2950,7 +2959,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2960,11 +2969,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>35</v>
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2993,7 +3002,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -3016,7 +3025,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3026,14 +3035,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3082,7 +3091,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3099,7 +3108,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3115,7 +3124,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3132,7 +3141,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3148,7 +3157,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3158,11 +3167,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3195,10 +3204,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3247,7 +3256,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3280,24 +3289,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3313,24 +3322,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3339,7 +3348,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3356,11 +3365,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3372,14 +3381,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3389,14 +3398,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3405,14 +3414,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3455,14 +3464,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>184</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3478,7 +3487,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3488,14 +3497,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3521,14 +3530,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3577,7 +3586,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3594,7 +3603,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3610,7 +3619,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3627,7 +3636,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3643,7 +3652,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3660,7 +3669,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3676,7 +3685,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3709,7 +3718,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3742,7 +3751,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3752,14 +3761,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3768,28 +3777,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>35</v>
@@ -3808,24 +3817,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3834,31 +3843,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3867,28 +3876,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>35</v>
@@ -3900,14 +3909,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3917,14 +3926,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3940,7 +3949,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3950,14 +3959,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3983,14 +3992,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>224</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3999,14 +4008,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4016,14 +4025,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>227</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4056,7 +4065,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4072,7 +4081,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4082,14 +4091,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4098,31 +4107,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4138,24 +4147,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4171,7 +4180,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4181,14 +4190,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4197,14 +4206,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4214,14 +4223,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4230,14 +4239,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4247,14 +4256,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4263,14 +4272,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4280,11 +4289,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>35</v>
@@ -4303,7 +4312,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4313,14 +4322,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4329,14 +4338,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4346,14 +4355,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4369,7 +4378,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4383,7 +4392,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>35</v>
@@ -4395,14 +4404,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4412,14 +4421,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4435,7 +4444,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4449,10 +4458,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4461,14 +4470,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4478,14 +4487,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4494,14 +4503,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4511,14 +4520,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4527,7 +4536,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4544,11 +4553,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4560,14 +4569,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4577,14 +4586,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4593,14 +4602,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4610,14 +4619,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4643,14 +4652,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4659,14 +4668,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,14 +4685,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4692,14 +4701,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,14 +4718,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4725,14 +4734,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4742,14 +4751,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>204</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4758,20 +4767,20 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4779,10 +4788,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4791,14 +4800,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,14 +4817,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4824,14 +4833,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4841,11 +4850,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4857,14 +4866,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4874,7 +4883,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4897,7 +4906,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,7 +4916,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4944,10 +4953,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,14 +4965,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4973,14 +4982,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4989,14 +4998,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5006,14 +5015,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5029,7 +5038,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5043,10 +5052,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5055,14 +5064,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,11 +5081,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5088,14 +5097,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5105,14 +5114,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5128,7 +5137,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5145,7 +5154,7 @@
         <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>305</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5171,14 +5180,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5187,14 +5196,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5204,14 +5213,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5220,14 +5229,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5237,11 +5246,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5253,14 +5262,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5270,11 +5279,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5286,14 +5295,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5303,11 +5312,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5326,7 +5335,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5359,7 +5368,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5369,11 +5378,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5385,7 +5394,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5402,14 +5411,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5418,14 +5427,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5435,14 +5444,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5451,14 +5460,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,14 +5477,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5484,14 +5493,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5501,11 +5510,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5517,14 +5526,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5534,14 +5543,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>333</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5550,14 +5559,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5567,14 +5576,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5583,14 +5592,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5600,49 +5609,82 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7140.4049999999997</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>337</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>338</v>
       </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
         <v>339</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>44</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>332</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7262.3549999999996</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>340</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>341</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>342</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6251,10 +6293,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -1031,7 +1031,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 10:58 PM</t>
+    <t>Friday, 13 June, 2025 11:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -401,6 +401,15 @@
     <t>104.00</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -440,246 +449,249 @@
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>106.8800</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVANIC 750 MG 5 TAB</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
     <t>1:5</t>
   </si>
   <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:18</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVANIC 750 MG 5 TAB</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:16</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>73.2600</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
     <t>4.8000</t>
   </si>
   <si>
@@ -728,6 +740,15 @@
     <t>249.0000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -1031,7 +1052,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 11:04 PM</t>
+    <t>Friday, 13 June, 2025 11:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2860,7 +2881,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2870,14 +2891,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2886,14 +2907,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2903,14 +2924,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2919,14 +2940,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2936,14 +2957,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2959,7 +2980,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2992,7 +3013,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3002,11 +3023,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>35</v>
@@ -3018,14 +3039,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3035,14 +3056,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3058,7 +3079,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3068,14 +3089,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3124,7 +3145,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3141,7 +3162,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3157,7 +3178,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3174,7 +3195,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3190,7 +3211,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3200,11 +3221,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3216,14 +3237,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3237,10 +3258,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3249,14 +3270,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3266,14 +3287,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3289,7 +3310,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3322,24 +3343,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3355,24 +3376,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3381,7 +3402,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3398,11 +3419,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3414,14 +3435,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3431,14 +3452,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3447,14 +3468,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3464,14 +3485,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>184</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3497,14 +3518,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>187</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3520,7 +3541,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3530,14 +3551,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3546,14 +3567,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3563,14 +3584,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3579,14 +3600,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3596,14 +3617,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3619,7 +3640,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3636,7 +3657,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3652,7 +3673,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3669,7 +3690,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3685,7 +3706,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3702,7 +3723,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3718,7 +3739,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3751,7 +3772,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3761,14 +3782,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3784,7 +3805,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3794,14 +3815,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3810,28 +3831,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>35</v>
@@ -3850,24 +3871,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3876,31 +3897,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3909,31 +3930,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3942,14 +3963,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3959,14 +3980,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3982,7 +4003,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3992,14 +4013,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4008,14 +4029,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4025,14 +4046,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>227</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4048,7 +4069,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4065,7 +4086,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4074,7 +4095,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4091,14 +4112,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4107,14 +4128,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4124,14 +4145,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4140,31 +4161,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4173,31 +4194,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4206,14 +4227,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4223,14 +4244,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4239,14 +4260,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4256,14 +4277,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4272,14 +4293,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4289,14 +4310,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4305,14 +4326,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4322,14 +4343,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4338,14 +4359,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4355,14 +4376,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4371,14 +4392,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4388,11 +4409,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>35</v>
@@ -4404,14 +4425,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4421,14 +4442,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4437,14 +4458,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4454,14 +4475,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4470,14 +4491,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4487,14 +4508,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4503,14 +4524,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4520,14 +4541,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4536,14 +4557,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4553,11 +4574,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4569,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4586,14 +4607,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4602,14 +4623,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4619,14 +4640,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>102</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4635,14 +4656,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4652,11 +4673,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4668,14 +4689,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4685,14 +4706,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4701,14 +4722,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4718,14 +4739,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4734,14 +4755,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4751,14 +4772,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4767,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,14 +4805,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4800,31 +4821,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4833,20 +4854,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4854,10 +4875,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4866,14 +4887,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4883,14 +4904,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4899,14 +4920,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4916,11 +4937,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4932,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,11 +4970,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4965,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4982,14 +5003,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4998,14 +5019,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5015,11 +5036,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5031,14 +5052,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5048,11 +5069,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>26</v>
@@ -5064,14 +5085,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5081,11 +5102,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>285</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5097,14 +5118,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5114,14 +5135,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5130,14 +5151,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5147,14 +5168,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5163,14 +5184,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5180,14 +5201,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>308</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5196,14 +5217,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5213,14 +5234,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>170</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>301</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5229,14 +5250,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5246,14 +5267,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5262,14 +5283,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5279,14 +5300,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5295,14 +5316,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5312,11 +5333,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>57</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>58</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5328,14 +5349,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5345,11 +5366,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5361,14 +5382,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5378,11 +5399,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>57</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5394,14 +5415,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5411,11 +5432,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5427,14 +5448,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5444,14 +5465,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5460,14 +5481,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5477,14 +5498,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5493,7 +5514,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5510,14 +5531,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>116</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5526,14 +5547,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5543,14 +5564,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>61</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5559,14 +5580,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5576,14 +5597,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>261</v>
+        <v>339</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>336</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5592,14 +5613,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5609,11 +5630,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5625,14 +5646,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5642,49 +5663,115 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>343</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>344</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>22</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>44</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>339</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>116</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7262.3549999999996</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>340</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>341</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>342</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c t="s" r="Q128" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>345</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>346</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>44</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>339</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7487.7950000000001</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>347</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>348</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>349</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6298,10 +6385,20 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -944,9 +944,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -1052,7 +1049,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 11:08 PM</t>
+    <t>Friday, 13 June, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5139,10 +5136,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5151,7 +5148,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5168,7 +5165,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5184,14 +5181,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5217,7 +5214,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5234,11 +5231,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>75</v>
@@ -5250,7 +5247,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5267,14 +5264,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5283,7 +5280,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5316,14 +5313,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,11 +5330,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5349,14 +5346,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5382,7 +5379,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5415,7 +5412,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5432,11 +5429,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5448,7 +5445,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5465,11 +5462,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5481,7 +5478,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5498,11 +5495,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5514,7 +5511,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5535,7 +5532,7 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>26</v>
@@ -5547,7 +5544,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5580,7 +5577,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5597,7 +5594,7 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
@@ -5613,7 +5610,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5630,7 +5627,7 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
@@ -5646,14 +5643,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5667,7 +5664,7 @@
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>75</v>
@@ -5679,7 +5676,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5696,7 +5693,7 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
@@ -5712,14 +5709,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5729,7 +5726,7 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
@@ -5741,13 +5738,13 @@
     </row>
     <row r="130" ht="24.75" customHeight="1">
       <c r="P130" s="13">
-        <v>7487.7950000000001</v>
+        <v>7502.7950000000001</v>
       </c>
       <c r="Q130" s="13"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
       <c t="s" r="A131" s="14">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -5755,13 +5752,13 @@
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
       <c t="s" r="G131" s="15">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
       <c r="J131" s="16"/>
       <c t="s" r="K131" s="17">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L131" s="17"/>
       <c r="M131" s="17"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -281,6 +281,18 @@
     <t>44.00</t>
   </si>
   <si>
+    <t>COLLAGICA FORTE BOTTLE</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -773,6 +785,9 @@
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -944,6 +959,12 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -971,9 +992,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1049,7 +1067,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 11:14 PM</t>
+    <t>Friday, 13 June, 2025 11:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2422,7 +2440,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2433,7 +2451,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2449,7 +2467,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2459,14 +2477,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2475,14 +2493,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2492,14 +2510,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2508,31 +2526,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2541,31 +2559,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2574,14 +2592,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2591,14 +2609,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2607,14 +2625,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2624,14 +2642,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2640,31 +2658,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2673,28 +2691,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>35</v>
@@ -2706,14 +2724,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,14 +2741,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2739,14 +2757,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2756,14 +2774,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2772,14 +2790,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2789,14 +2807,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2805,14 +2823,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,11 +2840,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>35</v>
@@ -2838,14 +2856,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2859,7 +2877,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>35</v>
@@ -2871,14 +2889,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2888,14 +2906,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2904,14 +2922,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2928,7 +2946,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2944,7 +2962,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,14 +2972,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2970,14 +2988,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2987,14 +3005,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,11 +3038,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>35</v>
@@ -3036,14 +3054,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3060,7 +3078,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3086,14 +3104,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3102,14 +3120,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3119,14 +3137,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3135,7 +3153,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3152,11 +3170,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3168,14 +3186,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3185,14 +3203,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3201,14 +3219,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,14 +3236,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3234,14 +3252,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3251,11 +3269,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3267,14 +3285,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3288,10 +3306,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3300,14 +3318,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3317,14 +3335,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3333,14 +3351,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3350,11 +3368,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3366,20 +3384,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3387,10 +3405,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3399,31 +3417,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3432,7 +3450,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3449,11 +3467,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3465,14 +3483,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3482,14 +3500,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3498,14 +3516,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3515,14 +3533,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>187</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3531,14 +3549,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3555,7 +3573,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3564,14 +3582,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3581,14 +3599,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3597,14 +3615,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3614,14 +3632,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3630,14 +3648,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3647,14 +3665,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3663,14 +3681,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3680,14 +3698,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3696,14 +3714,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,14 +3731,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3729,14 +3747,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3746,14 +3764,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3762,14 +3780,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3779,11 +3797,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>35</v>
@@ -3795,14 +3813,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3812,14 +3830,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3828,14 +3846,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,14 +3863,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3861,28 +3879,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>35</v>
@@ -3894,20 +3912,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3918,7 +3936,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3934,24 +3952,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3960,31 +3978,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3993,14 +4011,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4010,14 +4028,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4026,14 +4044,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4043,14 +4061,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4059,14 +4077,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4076,14 +4094,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>231</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4099,7 +4117,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4116,7 +4134,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4125,14 +4143,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,14 +4160,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4158,14 +4176,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4175,14 +4193,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4191,31 +4209,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4224,28 +4242,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4257,14 +4275,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,14 +4292,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4290,14 +4308,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,14 +4325,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4323,14 +4341,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,14 +4358,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4356,14 +4374,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,14 +4391,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4389,14 +4407,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,11 +4424,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>35</v>
@@ -4422,7 +4440,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4439,11 +4457,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4462,7 +4480,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4495,7 +4513,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4505,14 +4523,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4528,7 +4546,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4545,7 +4563,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4561,7 +4579,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4575,10 +4593,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4594,7 +4612,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4604,14 +4622,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4620,14 +4638,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4637,11 +4655,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4653,14 +4671,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4688,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,14 +4704,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,14 +4721,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>102</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4719,14 +4737,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,11 +4754,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4759,7 +4777,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,14 +4787,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4785,14 +4803,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4809,7 +4827,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4825,7 +4843,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4853,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4851,14 +4869,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4872,10 +4890,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4884,31 +4902,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4917,31 +4935,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4950,14 +4968,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4967,14 +4985,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4983,14 +5001,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5023,7 +5041,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5037,7 +5055,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5049,14 +5067,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5066,14 +5084,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5099,11 +5117,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5115,14 +5133,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5132,14 +5150,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>303</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5148,14 +5166,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5165,11 +5183,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5181,14 +5199,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5198,14 +5216,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,14 +5232,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5231,14 +5249,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5254,7 +5272,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5268,10 +5286,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>314</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5280,14 +5298,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>321</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5297,14 +5315,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>308</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5320,7 +5338,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5330,14 +5348,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5346,14 +5364,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5363,14 +5381,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5386,7 +5404,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5396,14 +5414,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5419,7 +5437,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>20</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5429,11 +5447,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5445,14 +5463,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5462,11 +5480,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5478,14 +5496,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5495,11 +5513,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>57</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>333</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5511,14 +5529,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5528,14 +5546,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5544,14 +5562,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5561,14 +5579,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5577,7 +5595,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5598,7 +5616,7 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>116</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5610,14 +5628,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5627,14 +5645,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>61</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5643,14 +5661,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5660,11 +5678,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>75</v>
@@ -5693,11 +5711,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5709,14 +5727,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5726,49 +5744,148 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7502.7950000000001</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>346</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>347</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>329</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>44</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>273</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>348</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c t="s" r="Q130" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>349</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>22</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>44</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>344</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>350</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>351</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>44</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>344</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7896.7950000000001</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>352</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>353</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>354</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6392,10 +6509,25 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -1067,7 +1067,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Friday, 13 June, 2025 11:34 PM</t>
+    <t>Friday, 13 June, 2025 11:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-13_00-00.xlsx
+++ b/DaySale_2025-06-13_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>ARCECHIMA 300 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -876,9 +885,6 @@
   </si>
   <si>
     <t>50.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -2038,7 +2044,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2048,14 +2054,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2064,14 +2070,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2088,7 +2094,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2104,7 +2110,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2137,7 +2143,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2154,7 +2160,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2170,7 +2176,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2180,14 +2186,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2196,14 +2202,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2220,7 +2226,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2236,7 +2242,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2246,14 +2252,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2262,14 +2268,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2279,14 +2285,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2295,31 +2301,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2328,31 +2334,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2361,14 +2367,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2385,7 +2391,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2401,7 +2407,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2411,14 +2417,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2440,7 +2446,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2448,10 +2454,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2460,31 +2466,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2493,14 +2499,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2517,7 +2523,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2533,7 +2539,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2550,7 +2556,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2566,13 +2572,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2583,7 +2589,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2599,13 +2605,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2616,7 +2622,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2632,7 +2638,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2646,10 +2652,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2658,14 +2664,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2675,14 +2681,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2698,13 +2704,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2715,7 +2721,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2731,13 +2737,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2764,7 +2770,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2774,14 +2780,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2797,7 +2803,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2807,14 +2813,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2823,14 +2829,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2840,14 +2846,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2863,7 +2869,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2896,7 +2902,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2906,11 +2912,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>35</v>
@@ -2929,7 +2935,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2939,14 +2945,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2962,7 +2968,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2972,14 +2978,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2988,14 +2994,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3005,14 +3011,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3021,14 +3027,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3038,14 +3044,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3061,7 +3067,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3094,7 +3100,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3104,14 +3110,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3120,14 +3126,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3137,14 +3143,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3160,7 +3166,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3170,14 +3176,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3226,7 +3232,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3243,7 +3249,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3259,7 +3265,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3276,7 +3282,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3292,7 +3298,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3302,11 +3308,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3318,14 +3324,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3339,10 +3345,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3351,14 +3357,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3368,14 +3374,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3391,7 +3397,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3424,24 +3430,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3457,24 +3463,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3483,7 +3489,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3500,11 +3506,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3516,14 +3522,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3533,14 +3539,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3549,14 +3555,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3566,14 +3572,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3582,14 +3588,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3599,14 +3605,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3622,7 +3628,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3632,14 +3638,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3648,14 +3654,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3665,14 +3671,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3681,14 +3687,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3698,14 +3704,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3721,7 +3727,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3738,7 +3744,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3754,7 +3760,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3771,7 +3777,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3787,7 +3793,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3804,7 +3810,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3820,7 +3826,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3853,7 +3859,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3863,14 +3869,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3886,7 +3892,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3896,14 +3902,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3912,28 +3918,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>35</v>
@@ -3952,24 +3958,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3978,31 +3984,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4011,31 +4017,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4044,14 +4050,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4061,14 +4067,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4084,7 +4090,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4094,14 +4100,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4117,7 +4123,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4127,14 +4133,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>235</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4143,14 +4149,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4160,14 +4166,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>238</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4183,7 +4189,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4200,7 +4206,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4216,7 +4222,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4226,14 +4232,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,31 +4248,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4282,13 +4288,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4315,7 +4321,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4325,14 +4331,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4348,7 +4354,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4358,14 +4364,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4374,14 +4380,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4391,14 +4397,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4407,14 +4413,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4424,14 +4430,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4440,14 +4446,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4457,14 +4463,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4473,14 +4479,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4490,14 +4496,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4513,7 +4519,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4523,14 +4529,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4539,14 +4545,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4556,14 +4562,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4579,7 +4585,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4593,7 +4599,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>35</v>
@@ -4605,14 +4611,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4622,14 +4628,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4645,7 +4651,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4659,10 +4665,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4671,14 +4677,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4688,14 +4694,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4704,14 +4710,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4721,14 +4727,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4737,14 +4743,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4754,11 +4760,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4770,14 +4776,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4787,14 +4793,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>106</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4803,14 +4809,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4820,14 +4826,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4853,14 +4859,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4869,14 +4875,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>35</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4886,14 +4892,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4902,14 +4908,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,14 +4925,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4942,7 +4948,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,14 +4958,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>114</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4975,24 +4981,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5001,14 +5007,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5018,14 +5024,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5034,14 +5040,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,7 +5057,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5074,7 +5080,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5084,11 +5090,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5100,14 +5106,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5117,11 +5123,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5133,14 +5139,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5150,14 +5156,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5183,14 +5189,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5206,7 +5212,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,14 +5222,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>313</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5239,7 +5245,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5249,14 +5255,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5272,7 +5278,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5282,11 +5288,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5305,7 +5311,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5315,11 +5321,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5338,7 +5344,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5348,14 +5354,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5364,14 +5370,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5381,14 +5387,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>321</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5414,14 +5420,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5430,14 +5436,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5447,14 +5453,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>315</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5463,14 +5469,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5480,11 +5486,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5496,14 +5502,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5513,11 +5519,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5529,14 +5535,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5546,11 +5552,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>60</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5562,14 +5568,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5579,11 +5585,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5595,14 +5601,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5612,11 +5618,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5628,7 +5634,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5645,14 +5651,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5661,14 +5667,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5678,14 +5684,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5694,14 +5700,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5711,14 +5717,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5734,7 +5740,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5748,7 +5754,7 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
@@ -5767,7 +5773,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5777,14 +5783,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>273</v>
+        <v>348</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>348</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5800,7 +5806,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>331</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5810,14 +5816,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5826,14 +5832,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>351</v>
+        <v>22</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5843,49 +5849,82 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7896.795000000000